--- a/Aanwezigheid/Presentie GL-G5.xlsx
+++ b/Aanwezigheid/Presentie GL-G5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sepi\Documents\Important Portable Stuff V1\Year 2\Game Labs 1\Project-Ninja-Outbreak\Algemeen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sepi\Documents\Important Portable Stuff V1\Year 2\Game Labs 1\Project-Ninja-Outbreak\Aanwezigheid\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="49">
   <si>
     <t>Maandag</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>Rief doktor afspraak.</t>
+  </si>
+  <si>
+    <t>Paige en Rick waren ziek</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -1143,11 +1146,11 @@
       </c>
       <c r="L2" s="47">
         <f>C8+C16+C24+C32+C48+C56+C64+C72+C80+C88+C96+C104+C120+C128+C136+C144+C152+C160+C168+C176</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M2" s="53">
         <f>L2/K2</f>
-        <v>0.57692307692307687</v>
+        <v>0.65384615384615385</v>
       </c>
       <c r="N2" s="42" t="s">
         <v>18</v>
@@ -1187,11 +1190,11 @@
       <c r="K3" s="10"/>
       <c r="L3" s="48">
         <f>D8+D16+D24+D32+D48+D56+D64+D72+D80+D88+D96+D104+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M3" s="54">
         <f>L3/K2</f>
-        <v>0.84615384615384615</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="N3" s="43" t="s">
         <v>19</v>
@@ -1229,11 +1232,11 @@
       <c r="K4" s="10"/>
       <c r="L4" s="49">
         <f>E8+E16+E24+E32+E48+E56+E64+E72+E80+E88+E96+E104+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M4" s="55">
         <f>L4/K2</f>
-        <v>0.76923076923076927</v>
+        <v>0.84615384615384615</v>
       </c>
       <c r="N4" s="44" t="s">
         <v>20</v>
@@ -1355,11 +1358,11 @@
       <c r="K7" s="10"/>
       <c r="L7" s="52">
         <f>H8+H88+H24+H32+H48+H56+H64+H72+H80+H96+H104+H120+H128+H136+H144+H152+H160+H168+H176+H16</f>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M7" s="58">
         <f>L7/K2</f>
-        <v>0.84615384615384615</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="N7" s="46" t="s">
         <v>23</v>
@@ -1404,11 +1407,11 @@
       <c r="K8" s="10"/>
       <c r="L8" s="38">
         <f>I8+I16+I24+I32+I48+I56+I64+I72+I80+I88+I96+I104+I120+I128+I136+I144+I152+I160+I168+I176</f>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M8" s="39">
         <f>L8/K2</f>
-        <v>0.84615384615384615</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="N8" s="41" t="s">
         <v>24</v>
@@ -1443,7 +1446,7 @@
       </c>
       <c r="M10" s="29">
         <f>SUM(M2:M9)</f>
-        <v>5.3846153846153841</v>
+        <v>5.7692307692307701</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1777,14 +1780,30 @@
       <c r="B22" s="10">
         <v>4</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="63"/>
+      <c r="C22" s="34">
+        <v>4</v>
+      </c>
+      <c r="D22" s="35">
+        <v>4</v>
+      </c>
+      <c r="E22" s="35">
+        <v>4</v>
+      </c>
+      <c r="F22" s="35">
+        <v>0</v>
+      </c>
+      <c r="G22" s="35">
+        <v>0</v>
+      </c>
+      <c r="H22" s="35">
+        <v>4</v>
+      </c>
+      <c r="I22" s="36">
+        <v>4</v>
+      </c>
+      <c r="J22" s="63" t="s">
+        <v>48</v>
+      </c>
       <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1813,15 +1832,15 @@
       </c>
       <c r="C24" s="76">
         <f t="shared" ref="C24:G24" si="2">SUM(C19:C23)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D24" s="77">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E24" s="77">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F24" s="77">
         <f t="shared" si="2"/>
@@ -1833,11 +1852,11 @@
       </c>
       <c r="H24" s="77">
         <f>SUM(H19:H23)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I24" s="77">
         <f>SUM(I19:I23)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J24" s="27"/>
       <c r="K24" s="10"/>

--- a/Aanwezigheid/Presentie GL-G5.xlsx
+++ b/Aanwezigheid/Presentie GL-G5.xlsx
@@ -1073,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1146,11 +1146,11 @@
       </c>
       <c r="L2" s="47">
         <f>C8+C16+C24+C32+C48+C56+C64+C72+C80+C88+C96+C104+C120+C128+C136+C144+C152+C160+C168+C176</f>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M2" s="53">
         <f>L2/K2</f>
-        <v>0.65384615384615385</v>
+        <v>0.73076923076923073</v>
       </c>
       <c r="N2" s="42" t="s">
         <v>18</v>
@@ -1190,11 +1190,11 @@
       <c r="K3" s="10"/>
       <c r="L3" s="48">
         <f>D8+D16+D24+D32+D48+D56+D64+D72+D80+D88+D96+D104+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M3" s="54">
         <f>L3/K2</f>
-        <v>0.92307692307692313</v>
+        <v>1</v>
       </c>
       <c r="N3" s="43" t="s">
         <v>19</v>
@@ -1232,11 +1232,11 @@
       <c r="K4" s="10"/>
       <c r="L4" s="49">
         <f>E8+E16+E24+E32+E48+E56+E64+E72+E80+E88+E96+E104+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M4" s="55">
         <f>L4/K2</f>
-        <v>0.84615384615384615</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="N4" s="44" t="s">
         <v>20</v>
@@ -1274,11 +1274,11 @@
       <c r="K5" s="10"/>
       <c r="L5" s="50">
         <f>F8+F16+F24+F32+F48+F56+F64+F72+F80+F88+F96+F104+F120+F128+F136+F144+F152+F160+F168+F176</f>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M5" s="56">
         <f>L5/K2</f>
-        <v>0.65384615384615385</v>
+        <v>0.73076923076923073</v>
       </c>
       <c r="N5" s="45" t="s">
         <v>21</v>
@@ -1358,11 +1358,11 @@
       <c r="K7" s="10"/>
       <c r="L7" s="52">
         <f>H8+H88+H24+H32+H48+H56+H64+H72+H80+H96+H104+H120+H128+H136+H144+H152+H160+H168+H176+H16</f>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M7" s="58">
         <f>L7/K2</f>
-        <v>0.92307692307692313</v>
+        <v>1</v>
       </c>
       <c r="N7" s="46" t="s">
         <v>23</v>
@@ -1407,11 +1407,11 @@
       <c r="K8" s="10"/>
       <c r="L8" s="38">
         <f>I8+I16+I24+I32+I48+I56+I64+I72+I80+I88+I96+I104+I120+I128+I136+I144+I152+I160+I168+I176</f>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M8" s="39">
         <f>L8/K2</f>
-        <v>0.92307692307692313</v>
+        <v>1</v>
       </c>
       <c r="N8" s="41" t="s">
         <v>24</v>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="M10" s="29">
         <f>SUM(M2:M9)</f>
-        <v>5.7692307692307701</v>
+        <v>6.2307692307692308</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1763,13 +1763,27 @@
       <c r="B21" s="10">
         <v>0</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="36"/>
+      <c r="C21" s="34">
+        <v>0</v>
+      </c>
+      <c r="D21" s="35">
+        <v>0</v>
+      </c>
+      <c r="E21" s="35">
+        <v>0</v>
+      </c>
+      <c r="F21" s="35">
+        <v>0</v>
+      </c>
+      <c r="G21" s="35">
+        <v>0</v>
+      </c>
+      <c r="H21" s="35">
+        <v>0</v>
+      </c>
+      <c r="I21" s="36">
+        <v>0</v>
+      </c>
       <c r="J21" s="63"/>
       <c r="K21" s="10"/>
     </row>
@@ -1813,13 +1827,27 @@
       <c r="B23" s="9">
         <v>4</v>
       </c>
-      <c r="C23" s="82"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="81"/>
+      <c r="C23" s="82">
+        <v>4</v>
+      </c>
+      <c r="D23" s="80">
+        <v>4</v>
+      </c>
+      <c r="E23" s="80">
+        <v>4</v>
+      </c>
+      <c r="F23" s="80">
+        <v>4</v>
+      </c>
+      <c r="G23" s="80">
+        <v>0</v>
+      </c>
+      <c r="H23" s="80">
+        <v>4</v>
+      </c>
+      <c r="I23" s="81">
+        <v>4</v>
+      </c>
       <c r="J23" s="63"/>
       <c r="K23" s="10"/>
     </row>
@@ -1832,19 +1860,19 @@
       </c>
       <c r="C24" s="76">
         <f t="shared" ref="C24:G24" si="2">SUM(C19:C23)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D24" s="77">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E24" s="77">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F24" s="77">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G24" s="77">
         <f t="shared" si="2"/>
@@ -1852,11 +1880,11 @@
       </c>
       <c r="H24" s="77">
         <f>SUM(H19:H23)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I24" s="77">
         <f>SUM(I19:I23)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J24" s="27"/>
       <c r="K24" s="10"/>

--- a/Aanwezigheid/Presentie GL-G5.xlsx
+++ b/Aanwezigheid/Presentie GL-G5.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="49">
   <si>
     <t>Maandag</t>
   </si>
@@ -1073,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1142,7 +1142,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="32">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B104+B112+B120+B128+B136+B144+B152+B168+B160+B176</f>
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="L2" s="47">
         <f>C8+C16+C24+C32+C48+C56+C64+C72+C80+C88+C96+C104+C120+C128+C136+C144+C152+C160+C168+C176</f>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="M2" s="53">
         <f>L2/K2</f>
-        <v>0.73076923076923073</v>
+        <v>0.54285714285714282</v>
       </c>
       <c r="N2" s="42" t="s">
         <v>18</v>
@@ -1190,11 +1190,11 @@
       <c r="K3" s="10"/>
       <c r="L3" s="48">
         <f>D8+D16+D24+D32+D48+D56+D64+D72+D80+D88+D96+D104+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M3" s="54">
         <f>L3/K2</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="N3" s="43" t="s">
         <v>19</v>
@@ -1232,11 +1232,11 @@
       <c r="K4" s="10"/>
       <c r="L4" s="49">
         <f>E8+E16+E24+E32+E48+E56+E64+E72+E80+E88+E96+E104+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M4" s="55">
         <f>L4/K2</f>
-        <v>0.92307692307692313</v>
+        <v>0.74285714285714288</v>
       </c>
       <c r="N4" s="44" t="s">
         <v>20</v>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="M5" s="56">
         <f>L5/K2</f>
-        <v>0.73076923076923073</v>
+        <v>0.54285714285714282</v>
       </c>
       <c r="N5" s="45" t="s">
         <v>21</v>
@@ -1316,11 +1316,11 @@
       <c r="K6" s="10"/>
       <c r="L6" s="51">
         <f>G8+G16+G24+G32+G48+G56+G64+G72+G80+G88+G96+G104+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M6" s="57">
         <f>L6/K2</f>
-        <v>0.84615384615384615</v>
+        <v>0.68571428571428572</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>22</v>
@@ -1358,11 +1358,11 @@
       <c r="K7" s="10"/>
       <c r="L7" s="52">
         <f>H8+H88+H24+H32+H48+H56+H64+H72+H80+H96+H104+H120+H128+H136+H144+H152+H160+H168+H176+H16</f>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M7" s="58">
         <f>L7/K2</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="N7" s="46" t="s">
         <v>23</v>
@@ -1407,11 +1407,11 @@
       <c r="K8" s="10"/>
       <c r="L8" s="38">
         <f>I8+I16+I24+I32+I48+I56+I64+I72+I80+I88+I96+I104+I120+I128+I136+I144+I152+I160+I168+I176</f>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M8" s="39">
         <f>L8/K2</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="N8" s="41" t="s">
         <v>24</v>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="M10" s="29">
         <f>SUM(M2:M9)</f>
-        <v>6.2307692307692308</v>
+        <v>4.9142857142857137</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1917,22 +1917,42 @@
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="5"/>
+      <c r="B27" s="10">
+        <v>4</v>
+      </c>
+      <c r="C27" s="34">
+        <v>0</v>
+      </c>
+      <c r="D27" s="35">
+        <v>4</v>
+      </c>
+      <c r="E27" s="35">
+        <v>4</v>
+      </c>
+      <c r="F27" s="35">
+        <v>0</v>
+      </c>
+      <c r="G27" s="35">
+        <v>4</v>
+      </c>
+      <c r="H27" s="35">
+        <v>4</v>
+      </c>
+      <c r="I27" s="36">
+        <v>4</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="K27" s="10"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="10"/>
+      <c r="B28" s="10">
+        <v>6</v>
+      </c>
       <c r="C28" s="34"/>
       <c r="D28" s="35"/>
       <c r="E28" s="35"/>
@@ -1962,7 +1982,9 @@
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="10"/>
+      <c r="B30" s="10">
+        <v>4</v>
+      </c>
       <c r="C30" s="34"/>
       <c r="D30" s="35"/>
       <c r="E30" s="35"/>
@@ -1977,7 +1999,9 @@
       <c r="A31" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="9"/>
+      <c r="B31" s="9">
+        <v>4</v>
+      </c>
       <c r="C31" s="82"/>
       <c r="D31" s="80"/>
       <c r="E31" s="80"/>
@@ -1993,7 +2017,7 @@
         <v>5</v>
       </c>
       <c r="B32" s="32">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C32" s="76">
         <f t="shared" ref="C32:G32" si="3">SUM(C27:C31)</f>
@@ -2001,11 +2025,11 @@
       </c>
       <c r="D32" s="77">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E32" s="77">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F32" s="77">
         <f t="shared" si="3"/>
@@ -2013,15 +2037,15 @@
       </c>
       <c r="G32" s="77">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H32" s="77">
         <f>SUM(H27:H31)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I32" s="77">
         <f>SUM(I27:I31)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J32" s="27"/>
       <c r="K32" s="10"/>

--- a/Aanwezigheid/Presentie GL-G5.xlsx
+++ b/Aanwezigheid/Presentie GL-G5.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="50">
   <si>
     <t>Maandag</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>Paige en Rick waren ziek</t>
+  </si>
+  <si>
+    <t>Benjamin en Hadewij werken thuis ivm rooster</t>
   </si>
 </sst>
 </file>
@@ -1073,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1190,11 +1193,11 @@
       <c r="K3" s="10"/>
       <c r="L3" s="48">
         <f>D8+D16+D24+D32+D48+D56+D64+D72+D80+D88+D96+D104+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="M3" s="54">
         <f>L3/K2</f>
-        <v>0.8</v>
+        <v>0.88571428571428568</v>
       </c>
       <c r="N3" s="43" t="s">
         <v>19</v>
@@ -1232,11 +1235,11 @@
       <c r="K4" s="10"/>
       <c r="L4" s="49">
         <f>E8+E16+E24+E32+E48+E56+E64+E72+E80+E88+E96+E104+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="M4" s="55">
         <f>L4/K2</f>
-        <v>0.74285714285714288</v>
+        <v>0.82857142857142863</v>
       </c>
       <c r="N4" s="44" t="s">
         <v>20</v>
@@ -1274,11 +1277,11 @@
       <c r="K5" s="10"/>
       <c r="L5" s="50">
         <f>F8+F16+F24+F32+F48+F56+F64+F72+F80+F88+F96+F104+F120+F128+F136+F144+F152+F160+F168+F176</f>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M5" s="56">
         <f>L5/K2</f>
-        <v>0.54285714285714282</v>
+        <v>0.62857142857142856</v>
       </c>
       <c r="N5" s="45" t="s">
         <v>21</v>
@@ -1316,11 +1319,11 @@
       <c r="K6" s="10"/>
       <c r="L6" s="51">
         <f>G8+G16+G24+G32+G48+G56+G64+G72+G80+G88+G96+G104+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M6" s="57">
         <f>L6/K2</f>
-        <v>0.68571428571428572</v>
+        <v>0.77142857142857146</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>22</v>
@@ -1446,7 +1449,7 @@
       </c>
       <c r="M10" s="29">
         <f>SUM(M2:M9)</f>
-        <v>4.9142857142857137</v>
+        <v>5.2571428571428571</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1953,14 +1956,30 @@
       <c r="B28" s="10">
         <v>6</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="5"/>
+      <c r="C28" s="34">
+        <v>0</v>
+      </c>
+      <c r="D28" s="35">
+        <v>6</v>
+      </c>
+      <c r="E28" s="35">
+        <v>6</v>
+      </c>
+      <c r="F28" s="35">
+        <v>6</v>
+      </c>
+      <c r="G28" s="35">
+        <v>6</v>
+      </c>
+      <c r="H28" s="35">
+        <v>0</v>
+      </c>
+      <c r="I28" s="36">
+        <v>0</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="K28" s="10"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -2025,19 +2044,19 @@
       </c>
       <c r="D32" s="77">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E32" s="77">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F32" s="77">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G32" s="77">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H32" s="77">
         <f>SUM(H27:H31)</f>

--- a/Aanwezigheid/Presentie GL-G5.xlsx
+++ b/Aanwezigheid/Presentie GL-G5.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:N176"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1193,11 +1193,11 @@
       <c r="K3" s="10"/>
       <c r="L3" s="48">
         <f>D8+D16+D24+D32+D48+D56+D64+D72+D80+D88+D96+D104+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M3" s="54">
         <f>L3/K2</f>
-        <v>0.88571428571428568</v>
+        <v>0.94285714285714284</v>
       </c>
       <c r="N3" s="43" t="s">
         <v>19</v>
@@ -1235,11 +1235,11 @@
       <c r="K4" s="10"/>
       <c r="L4" s="49">
         <f>E8+E16+E24+E32+E48+E56+E64+E72+E80+E88+E96+E104+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M4" s="55">
         <f>L4/K2</f>
-        <v>0.82857142857142863</v>
+        <v>0.88571428571428568</v>
       </c>
       <c r="N4" s="44" t="s">
         <v>20</v>
@@ -1319,11 +1319,11 @@
       <c r="K6" s="10"/>
       <c r="L6" s="51">
         <f>G8+G16+G24+G32+G48+G56+G64+G72+G80+G88+G96+G104+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M6" s="57">
         <f>L6/K2</f>
-        <v>0.77142857142857146</v>
+        <v>0.82857142857142863</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>22</v>
@@ -1361,11 +1361,11 @@
       <c r="K7" s="10"/>
       <c r="L7" s="52">
         <f>H8+H88+H24+H32+H48+H56+H64+H72+H80+H96+H104+H120+H128+H136+H144+H152+H160+H168+H176+H16</f>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M7" s="58">
         <f>L7/K2</f>
-        <v>0.8</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N7" s="46" t="s">
         <v>23</v>
@@ -1410,11 +1410,11 @@
       <c r="K8" s="10"/>
       <c r="L8" s="38">
         <f>I8+I16+I24+I32+I48+I56+I64+I72+I80+I88+I96+I104+I120+I128+I136+I144+I152+I160+I168+I176</f>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M8" s="39">
         <f>L8/K2</f>
-        <v>0.8</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N8" s="41" t="s">
         <v>24</v>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="M10" s="29">
         <f>SUM(M2:M9)</f>
-        <v>5.2571428571428571</v>
+        <v>5.5428571428571427</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2004,13 +2004,27 @@
       <c r="B30" s="10">
         <v>4</v>
       </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="36"/>
+      <c r="C30" s="34">
+        <v>0</v>
+      </c>
+      <c r="D30" s="35">
+        <v>4</v>
+      </c>
+      <c r="E30" s="35">
+        <v>4</v>
+      </c>
+      <c r="F30" s="35">
+        <v>0</v>
+      </c>
+      <c r="G30" s="35">
+        <v>4</v>
+      </c>
+      <c r="H30" s="35">
+        <v>4</v>
+      </c>
+      <c r="I30" s="36">
+        <v>4</v>
+      </c>
       <c r="J30" s="5"/>
       <c r="K30" s="10"/>
     </row>
@@ -2044,11 +2058,11 @@
       </c>
       <c r="D32" s="77">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E32" s="77">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F32" s="77">
         <f t="shared" si="3"/>
@@ -2056,15 +2070,15 @@
       </c>
       <c r="G32" s="77">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H32" s="77">
         <f>SUM(H27:H31)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I32" s="77">
         <f>SUM(I27:I31)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J32" s="27"/>
       <c r="K32" s="10"/>

--- a/Aanwezigheid/Presentie GL-G5.xlsx
+++ b/Aanwezigheid/Presentie GL-G5.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="50">
   <si>
     <t>Maandag</t>
   </si>
@@ -1076,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1193,11 +1193,11 @@
       <c r="K3" s="10"/>
       <c r="L3" s="48">
         <f>D8+D16+D24+D32+D48+D56+D64+D72+D80+D88+D96+D104+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M3" s="54">
         <f>L3/K2</f>
-        <v>0.94285714285714284</v>
+        <v>1</v>
       </c>
       <c r="N3" s="43" t="s">
         <v>19</v>
@@ -1235,11 +1235,11 @@
       <c r="K4" s="10"/>
       <c r="L4" s="49">
         <f>E8+E16+E24+E32+E48+E56+E64+E72+E80+E88+E96+E104+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M4" s="55">
         <f>L4/K2</f>
-        <v>0.88571428571428568</v>
+        <v>0.94285714285714284</v>
       </c>
       <c r="N4" s="44" t="s">
         <v>20</v>
@@ -1319,11 +1319,11 @@
       <c r="K6" s="10"/>
       <c r="L6" s="51">
         <f>G8+G16+G24+G32+G48+G56+G64+G72+G80+G88+G96+G104+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M6" s="57">
         <f>L6/K2</f>
-        <v>0.82857142857142863</v>
+        <v>0.88571428571428568</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>22</v>
@@ -1361,11 +1361,11 @@
       <c r="K7" s="10"/>
       <c r="L7" s="52">
         <f>H8+H88+H24+H32+H48+H56+H64+H72+H80+H96+H104+H120+H128+H136+H144+H152+H160+H168+H176+H16</f>
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M7" s="58">
         <f>L7/K2</f>
-        <v>0.8571428571428571</v>
+        <v>0.91428571428571426</v>
       </c>
       <c r="N7" s="46" t="s">
         <v>23</v>
@@ -1410,11 +1410,11 @@
       <c r="K8" s="10"/>
       <c r="L8" s="38">
         <f>I8+I16+I24+I32+I48+I56+I64+I72+I80+I88+I96+I104+I120+I128+I136+I144+I152+I160+I168+I176</f>
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M8" s="39">
         <f>L8/K2</f>
-        <v>0.8571428571428571</v>
+        <v>0.91428571428571426</v>
       </c>
       <c r="N8" s="41" t="s">
         <v>24</v>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="M10" s="29">
         <f>SUM(M2:M9)</f>
-        <v>5.5428571428571427</v>
+        <v>5.8285714285714292</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2035,14 +2035,30 @@
       <c r="B31" s="9">
         <v>4</v>
       </c>
-      <c r="C31" s="82"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="81"/>
-      <c r="J31" s="5"/>
+      <c r="C31" s="82">
+        <v>0</v>
+      </c>
+      <c r="D31" s="80">
+        <v>4</v>
+      </c>
+      <c r="E31" s="80">
+        <v>4</v>
+      </c>
+      <c r="F31" s="80">
+        <v>0</v>
+      </c>
+      <c r="G31" s="80">
+        <v>4</v>
+      </c>
+      <c r="H31" s="80">
+        <v>4</v>
+      </c>
+      <c r="I31" s="81">
+        <v>4</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="K31" s="10"/>
     </row>
     <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2058,11 +2074,11 @@
       </c>
       <c r="D32" s="77">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E32" s="77">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F32" s="77">
         <f t="shared" si="3"/>
@@ -2070,15 +2086,15 @@
       </c>
       <c r="G32" s="77">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H32" s="77">
         <f>SUM(H27:H31)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I32" s="77">
         <f>SUM(I27:I31)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J32" s="27"/>
       <c r="K32" s="10"/>

--- a/Aanwezigheid/Presentie GL-G5.xlsx
+++ b/Aanwezigheid/Presentie GL-G5.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="51">
   <si>
     <t>Maandag</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>Benjamin en Hadewij werken thuis ivm rooster</t>
+  </si>
+  <si>
+    <t>Hadewij was ziek</t>
   </si>
 </sst>
 </file>
@@ -1076,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2108,7 +2111,7 @@
       <c r="H33" s="79"/>
       <c r="I33" s="79"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>30</v>
       </c>
@@ -2120,21 +2123,39 @@
       <c r="G34" s="74"/>
       <c r="H34" s="74"/>
       <c r="I34" s="75"/>
-      <c r="J34" s="4"/>
+      <c r="J34" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="K34" s="10"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="36"/>
+      <c r="B35" s="10">
+        <v>4</v>
+      </c>
+      <c r="C35" s="73">
+        <v>0</v>
+      </c>
+      <c r="D35" s="74">
+        <v>4</v>
+      </c>
+      <c r="E35" s="74">
+        <v>4</v>
+      </c>
+      <c r="F35" s="74">
+        <v>0</v>
+      </c>
+      <c r="G35" s="74">
+        <v>4</v>
+      </c>
+      <c r="H35" s="74">
+        <v>4</v>
+      </c>
+      <c r="I35" s="75">
+        <v>0</v>
+      </c>
       <c r="J35" s="5"/>
       <c r="K35" s="10"/>
     </row>
@@ -2211,11 +2232,11 @@
       </c>
       <c r="D40" s="77">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E40" s="77">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F40" s="77">
         <f t="shared" si="4"/>
@@ -2223,11 +2244,11 @@
       </c>
       <c r="G40" s="77">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H40" s="77">
         <f>SUM(H35:H39)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I40" s="77">
         <f>SUM(I35:I39)</f>

--- a/Aanwezigheid/Presentie GL-G5.xlsx
+++ b/Aanwezigheid/Presentie GL-G5.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sepi\Documents\Important Portable Stuff V1\Year 2\Game Labs 1\Project-Ninja-Outbreak\Aanwezigheid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\Important and Stuff V1\School\Year 2\Project-Ninja-Outbreak\Aanwezigheid\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="52">
   <si>
     <t>Maandag</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>Hadewij was ziek</t>
+  </si>
+  <si>
+    <t>David werkt thuis</t>
   </si>
 </sst>
 </file>
@@ -1080,22 +1083,22 @@
   <dimension ref="A1:N176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
-    <col min="3" max="9" width="10.88671875" style="84" customWidth="1"/>
-    <col min="10" max="10" width="37.6640625" customWidth="1"/>
-    <col min="11" max="11" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.109375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="25.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
+    <col min="3" max="9" width="10.85546875" style="84" customWidth="1"/>
+    <col min="10" max="10" width="37.7109375" customWidth="1"/>
+    <col min="11" max="11" width="27.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="22" t="s">
         <v>6</v>
       </c>
@@ -1133,7 +1136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
@@ -1162,7 +1165,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1206,7 +1209,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1248,7 +1251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1290,7 +1293,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1332,7 +1335,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -1374,7 +1377,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -1423,7 +1426,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="79"/>
       <c r="D9" s="79"/>
       <c r="E9" s="79"/>
@@ -1433,7 +1436,7 @@
       <c r="I9" s="79"/>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="59" t="s">
         <v>26</v>
       </c>
@@ -1455,7 +1458,7 @@
         <v>5.8285714285714292</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="60" t="s">
         <v>0</v>
       </c>
@@ -1486,7 +1489,7 @@
       <c r="J11" s="63"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="60" t="s">
         <v>1</v>
       </c>
@@ -1523,7 +1526,7 @@
       </c>
       <c r="M12" s="87"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="60" t="s">
         <v>2</v>
       </c>
@@ -1558,7 +1561,7 @@
       </c>
       <c r="M13" s="93"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="60" t="s">
         <v>3</v>
       </c>
@@ -1593,7 +1596,7 @@
       </c>
       <c r="M14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="61" t="s">
         <v>4</v>
       </c>
@@ -1630,7 +1633,7 @@
       </c>
       <c r="M15" s="95"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="61" t="s">
         <v>5</v>
       </c>
@@ -1672,7 +1675,7 @@
       </c>
       <c r="M16" s="96"/>
     </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="79"/>
       <c r="D17" s="79"/>
       <c r="E17" s="79"/>
@@ -1683,7 +1686,7 @@
       <c r="J17" s="13"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
@@ -1698,7 +1701,7 @@
       <c r="J18" s="62"/>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
@@ -1729,7 +1732,7 @@
       <c r="J19" s="63"/>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>1</v>
       </c>
@@ -1762,7 +1765,7 @@
       </c>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>2</v>
       </c>
@@ -1793,7 +1796,7 @@
       <c r="J21" s="63"/>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
@@ -1826,7 +1829,7 @@
       </c>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>4</v>
       </c>
@@ -1857,7 +1860,7 @@
       <c r="J23" s="63"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>5</v>
       </c>
@@ -1895,7 +1898,7 @@
       <c r="J24" s="27"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="79"/>
       <c r="D25" s="79"/>
       <c r="E25" s="79"/>
@@ -1904,7 +1907,7 @@
       <c r="H25" s="79"/>
       <c r="I25" s="79"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>28</v>
       </c>
@@ -1919,7 +1922,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
@@ -1952,7 +1955,7 @@
       </c>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>1</v>
       </c>
@@ -1985,7 +1988,7 @@
       </c>
       <c r="K28" s="10"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>2</v>
       </c>
@@ -2000,7 +2003,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
@@ -2031,7 +2034,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>4</v>
       </c>
@@ -2064,7 +2067,7 @@
       </c>
       <c r="K31" s="10"/>
     </row>
-    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>5</v>
       </c>
@@ -2102,7 +2105,7 @@
       <c r="J32" s="27"/>
       <c r="K32" s="10"/>
     </row>
-    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="79"/>
       <c r="D33" s="79"/>
       <c r="E33" s="79"/>
@@ -2111,7 +2114,7 @@
       <c r="H33" s="79"/>
       <c r="I33" s="79"/>
     </row>
-    <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>30</v>
       </c>
@@ -2128,7 +2131,7 @@
       </c>
       <c r="K34" s="10"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>0</v>
       </c>
@@ -2159,22 +2162,40 @@
       <c r="J35" s="5"/>
       <c r="K35" s="10"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="5"/>
+      <c r="B36" s="10">
+        <v>6</v>
+      </c>
+      <c r="C36" s="34">
+        <v>0</v>
+      </c>
+      <c r="D36" s="35">
+        <v>0</v>
+      </c>
+      <c r="E36" s="35">
+        <v>0</v>
+      </c>
+      <c r="F36" s="35">
+        <v>0</v>
+      </c>
+      <c r="G36" s="35">
+        <v>6</v>
+      </c>
+      <c r="H36" s="35">
+        <v>6</v>
+      </c>
+      <c r="I36" s="36">
+        <v>0</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>2</v>
       </c>
@@ -2189,7 +2210,7 @@
       <c r="J37" s="5"/>
       <c r="K37" s="10"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>3</v>
       </c>
@@ -2204,7 +2225,7 @@
       <c r="J38" s="5"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>4</v>
       </c>
@@ -2219,7 +2240,7 @@
       <c r="J39" s="5"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>5</v>
       </c>
@@ -2244,11 +2265,11 @@
       </c>
       <c r="G40" s="77">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H40" s="77">
         <f>SUM(H35:H39)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I40" s="77">
         <f>SUM(I35:I39)</f>
@@ -2256,10 +2277,10 @@
       </c>
       <c r="J40" s="27"/>
     </row>
-    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>29</v>
       </c>
@@ -2274,7 +2295,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>0</v>
       </c>
@@ -2289,7 +2310,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>1</v>
       </c>
@@ -2304,7 +2325,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>2</v>
       </c>
@@ -2319,7 +2340,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>3</v>
       </c>
@@ -2334,7 +2355,7 @@
       <c r="J46" s="2"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>4</v>
       </c>
@@ -2349,7 +2370,7 @@
       <c r="J47" s="3"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>5</v>
       </c>
@@ -2386,7 +2407,7 @@
       </c>
       <c r="J48" s="27"/>
     </row>
-    <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C49" s="79"/>
       <c r="D49" s="79"/>
       <c r="E49" s="79"/>
@@ -2396,7 +2417,7 @@
       <c r="I49" s="79"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>31</v>
       </c>
@@ -2411,7 +2432,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>0</v>
       </c>
@@ -2426,7 +2447,7 @@
       <c r="J51" s="2"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>1</v>
       </c>
@@ -2441,7 +2462,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>2</v>
       </c>
@@ -2456,7 +2477,7 @@
       <c r="J53" s="2"/>
       <c r="K53" s="10"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>3</v>
       </c>
@@ -2471,7 +2492,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="10"/>
     </row>
-    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>4</v>
       </c>
@@ -2486,7 +2507,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="10"/>
     </row>
-    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>5</v>
       </c>
@@ -2523,7 +2544,7 @@
       </c>
       <c r="J56" s="31"/>
     </row>
-    <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C57" s="79"/>
       <c r="D57" s="79"/>
       <c r="E57" s="79"/>
@@ -2533,7 +2554,7 @@
       <c r="I57" s="79"/>
       <c r="K57" s="10"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>32</v>
       </c>
@@ -2548,7 +2569,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="10"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>0</v>
       </c>
@@ -2563,7 +2584,7 @@
       <c r="J59" s="2"/>
       <c r="K59" s="10"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>1</v>
       </c>
@@ -2578,7 +2599,7 @@
       <c r="J60" s="2"/>
       <c r="K60" s="10"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>2</v>
       </c>
@@ -2593,7 +2614,7 @@
       <c r="J61" s="2"/>
       <c r="K61" s="10"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>3</v>
       </c>
@@ -2608,7 +2629,7 @@
       <c r="J62" s="2"/>
       <c r="K62" s="10"/>
     </row>
-    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>4</v>
       </c>
@@ -2623,7 +2644,7 @@
       <c r="J63" s="3"/>
       <c r="K63" s="10"/>
     </row>
-    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>5</v>
       </c>
@@ -2660,7 +2681,7 @@
       </c>
       <c r="J64" s="31"/>
     </row>
-    <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="10"/>
       <c r="C65" s="83"/>
       <c r="D65" s="83"/>
@@ -2672,7 +2693,7 @@
       <c r="J65" s="1"/>
       <c r="K65" s="10"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>33</v>
       </c>
@@ -2687,7 +2708,7 @@
       <c r="J66" s="15"/>
       <c r="K66" s="10"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>0</v>
       </c>
@@ -2702,7 +2723,7 @@
       <c r="J67" s="17"/>
       <c r="K67" s="10"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>1</v>
       </c>
@@ -2717,7 +2738,7 @@
       <c r="J68" s="17"/>
       <c r="K68" s="10"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>2</v>
       </c>
@@ -2732,7 +2753,7 @@
       <c r="J69" s="17"/>
       <c r="K69" s="10"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>3</v>
       </c>
@@ -2747,7 +2768,7 @@
       <c r="J70" s="17"/>
       <c r="K70" s="10"/>
     </row>
-    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>4</v>
       </c>
@@ -2762,7 +2783,7 @@
       <c r="J71" s="19"/>
       <c r="K71" s="10"/>
     </row>
-    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="27" t="s">
         <v>5</v>
       </c>
@@ -2799,7 +2820,7 @@
       </c>
       <c r="J72" s="31"/>
     </row>
-    <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C73" s="79"/>
       <c r="D73" s="79"/>
       <c r="E73" s="79"/>
@@ -2809,7 +2830,7 @@
       <c r="I73" s="79"/>
       <c r="K73" s="10"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>34</v>
       </c>
@@ -2824,7 +2845,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="10"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>0</v>
       </c>
@@ -2839,7 +2860,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="10"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>1</v>
       </c>
@@ -2854,7 +2875,7 @@
       <c r="J76" s="2"/>
       <c r="K76" s="10"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>2</v>
       </c>
@@ -2869,7 +2890,7 @@
       <c r="J77" s="2"/>
       <c r="K77" s="10"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>3</v>
       </c>
@@ -2884,7 +2905,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="10"/>
     </row>
-    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>4</v>
       </c>
@@ -2899,7 +2920,7 @@
       <c r="J79" s="3"/>
       <c r="K79" s="10"/>
     </row>
-    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>5</v>
       </c>
@@ -2936,7 +2957,7 @@
       </c>
       <c r="J80" s="31"/>
     </row>
-    <row r="81" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C81" s="79"/>
       <c r="D81" s="79"/>
       <c r="E81" s="79"/>
@@ -2946,7 +2967,7 @@
       <c r="I81" s="79"/>
       <c r="K81" s="10"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>35</v>
       </c>
@@ -2961,7 +2982,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="10"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>0</v>
       </c>
@@ -2976,7 +2997,7 @@
       <c r="J83" s="2"/>
       <c r="K83" s="10"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>1</v>
       </c>
@@ -2991,7 +3012,7 @@
       <c r="J84" s="2"/>
       <c r="K84" s="10"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>2</v>
       </c>
@@ -3006,7 +3027,7 @@
       <c r="J85" s="2"/>
       <c r="K85" s="10"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>3</v>
       </c>
@@ -3021,7 +3042,7 @@
       <c r="J86" s="2"/>
       <c r="K86" s="10"/>
     </row>
-    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>4</v>
       </c>
@@ -3036,7 +3057,7 @@
       <c r="J87" s="3"/>
       <c r="K87" s="10"/>
     </row>
-    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>5</v>
       </c>
@@ -3073,7 +3094,7 @@
       </c>
       <c r="J88" s="31"/>
     </row>
-    <row r="89" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C89" s="79"/>
       <c r="D89" s="79"/>
       <c r="E89" s="79"/>
@@ -3083,7 +3104,7 @@
       <c r="I89" s="79"/>
       <c r="K89" s="10"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>36</v>
       </c>
@@ -3098,7 +3119,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="10"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>0</v>
       </c>
@@ -3113,7 +3134,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="10"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>1</v>
       </c>
@@ -3128,7 +3149,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="10"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>2</v>
       </c>
@@ -3143,7 +3164,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="10"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>3</v>
       </c>
@@ -3158,7 +3179,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="10"/>
     </row>
-    <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>4</v>
       </c>
@@ -3173,7 +3194,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="10"/>
     </row>
-    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>5</v>
       </c>
@@ -3210,7 +3231,7 @@
       </c>
       <c r="J96" s="31"/>
     </row>
-    <row r="97" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C97" s="79"/>
       <c r="D97" s="79"/>
       <c r="E97" s="79"/>
@@ -3220,7 +3241,7 @@
       <c r="I97" s="79"/>
       <c r="K97" s="10"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>37</v>
       </c>
@@ -3235,7 +3256,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="10"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>0</v>
       </c>
@@ -3250,7 +3271,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="10"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>1</v>
       </c>
@@ -3265,7 +3286,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="10"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>2</v>
       </c>
@@ -3280,7 +3301,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="10"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>3</v>
       </c>
@@ -3295,7 +3316,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="10"/>
     </row>
-    <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>4</v>
       </c>
@@ -3310,7 +3331,7 @@
       <c r="J103" s="3"/>
       <c r="K103" s="10"/>
     </row>
-    <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>5</v>
       </c>
@@ -3347,7 +3368,7 @@
       </c>
       <c r="J104" s="27"/>
     </row>
-    <row r="105" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C105" s="79"/>
       <c r="D105" s="79"/>
       <c r="E105" s="79"/>
@@ -3357,7 +3378,7 @@
       <c r="I105" s="79"/>
       <c r="K105" s="10"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>37</v>
       </c>
@@ -3372,7 +3393,7 @@
       <c r="J106" s="1"/>
       <c r="K106" s="10"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>0</v>
       </c>
@@ -3387,7 +3408,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="10"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>1</v>
       </c>
@@ -3402,7 +3423,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="10"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>2</v>
       </c>
@@ -3417,7 +3438,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="10"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>3</v>
       </c>
@@ -3432,7 +3453,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="10"/>
     </row>
-    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>4</v>
       </c>
@@ -3446,7 +3467,7 @@
       <c r="I111" s="81"/>
       <c r="J111" s="3"/>
     </row>
-    <row r="112" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>5</v>
       </c>
@@ -3484,10 +3505,10 @@
       <c r="J112" s="27"/>
       <c r="K112" s="10"/>
     </row>
-    <row r="113" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K113" s="10"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>38</v>
       </c>
@@ -3502,7 +3523,7 @@
       <c r="J114" s="1"/>
       <c r="K114" s="10"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>0</v>
       </c>
@@ -3531,7 +3552,7 @@
       <c r="J115" s="2"/>
       <c r="K115" s="10"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>1</v>
       </c>
@@ -3560,7 +3581,7 @@
       <c r="J116" s="2"/>
       <c r="K116" s="10"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>2</v>
       </c>
@@ -3589,7 +3610,7 @@
       <c r="J117" s="2"/>
       <c r="K117" s="10"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>3</v>
       </c>
@@ -3618,7 +3639,7 @@
       <c r="J118" s="2"/>
       <c r="K118" s="10"/>
     </row>
-    <row r="119" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>4</v>
       </c>
@@ -3646,7 +3667,7 @@
       </c>
       <c r="J119" s="3"/>
     </row>
-    <row r="120" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>5</v>
       </c>
@@ -3684,7 +3705,7 @@
       <c r="J120" s="27"/>
       <c r="K120" s="10"/>
     </row>
-    <row r="121" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C121" s="79"/>
       <c r="D121" s="79"/>
       <c r="E121" s="79"/>
@@ -3694,7 +3715,7 @@
       <c r="I121" s="79"/>
       <c r="K121" s="10"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>39</v>
       </c>
@@ -3709,7 +3730,7 @@
       <c r="J122" s="1"/>
       <c r="K122" s="10"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>0</v>
       </c>
@@ -3738,7 +3759,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="10"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>1</v>
       </c>
@@ -3767,7 +3788,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="10"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>2</v>
       </c>
@@ -3796,7 +3817,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="10"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>3</v>
       </c>
@@ -3825,7 +3846,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="10"/>
     </row>
-    <row r="127" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>4</v>
       </c>
@@ -3853,7 +3874,7 @@
       </c>
       <c r="J127" s="3"/>
     </row>
-    <row r="128" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>5</v>
       </c>
@@ -3891,7 +3912,7 @@
       <c r="J128" s="27"/>
       <c r="K128" s="10"/>
     </row>
-    <row r="129" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C129" s="79"/>
       <c r="D129" s="79"/>
       <c r="E129" s="79"/>
@@ -3901,7 +3922,7 @@
       <c r="I129" s="79"/>
       <c r="K129" s="10"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>40</v>
       </c>
@@ -3916,7 +3937,7 @@
       <c r="J130" s="1"/>
       <c r="K130" s="10"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>0</v>
       </c>
@@ -3945,7 +3966,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="10"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>1</v>
       </c>
@@ -3974,7 +3995,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="10"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>2</v>
       </c>
@@ -4003,7 +4024,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="10"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>3</v>
       </c>
@@ -4032,7 +4053,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="10"/>
     </row>
-    <row r="135" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>4</v>
       </c>
@@ -4060,7 +4081,7 @@
       </c>
       <c r="J135" s="3"/>
     </row>
-    <row r="136" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>5</v>
       </c>
@@ -4098,7 +4119,7 @@
       <c r="J136" s="27"/>
       <c r="K136" s="10"/>
     </row>
-    <row r="137" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C137" s="79"/>
       <c r="D137" s="79"/>
       <c r="E137" s="79"/>
@@ -4108,7 +4129,7 @@
       <c r="I137" s="79"/>
       <c r="K137" s="10"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>41</v>
       </c>
@@ -4123,7 +4144,7 @@
       <c r="J138" s="15"/>
       <c r="K138" s="10"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>0</v>
       </c>
@@ -4152,7 +4173,7 @@
       <c r="J139" s="17"/>
       <c r="K139" s="10"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>1</v>
       </c>
@@ -4181,7 +4202,7 @@
       <c r="J140" s="17"/>
       <c r="K140" s="10"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>2</v>
       </c>
@@ -4210,7 +4231,7 @@
       <c r="J141" s="17"/>
       <c r="K141" s="10"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>3</v>
       </c>
@@ -4239,7 +4260,7 @@
       <c r="J142" s="17"/>
       <c r="K142" s="10"/>
     </row>
-    <row r="143" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
         <v>4</v>
       </c>
@@ -4267,7 +4288,7 @@
       </c>
       <c r="J143" s="19"/>
     </row>
-    <row r="144" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>5</v>
       </c>
@@ -4305,7 +4326,7 @@
       <c r="J144" s="85"/>
       <c r="K144" s="10"/>
     </row>
-    <row r="145" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B145" s="20"/>
       <c r="C145" s="79"/>
       <c r="D145" s="79"/>
@@ -4317,7 +4338,7 @@
       <c r="J145" s="21"/>
       <c r="K145" s="10"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>42</v>
       </c>
@@ -4332,7 +4353,7 @@
       <c r="J146" s="15"/>
       <c r="K146" s="10"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>0</v>
       </c>
@@ -4361,7 +4382,7 @@
       <c r="J147" s="17"/>
       <c r="K147" s="10"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>1</v>
       </c>
@@ -4390,7 +4411,7 @@
       <c r="J148" s="17"/>
       <c r="K148" s="10"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>2</v>
       </c>
@@ -4419,7 +4440,7 @@
       <c r="J149" s="17"/>
       <c r="K149" s="10"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>3</v>
       </c>
@@ -4448,7 +4469,7 @@
       <c r="J150" s="17"/>
       <c r="K150" s="10"/>
     </row>
-    <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
         <v>4</v>
       </c>
@@ -4476,7 +4497,7 @@
       </c>
       <c r="J151" s="19"/>
     </row>
-    <row r="152" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
         <v>5</v>
       </c>
@@ -4514,7 +4535,7 @@
       <c r="J152" s="27"/>
       <c r="K152" s="10"/>
     </row>
-    <row r="153" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C153" s="79"/>
       <c r="D153" s="79"/>
       <c r="E153" s="79"/>
@@ -4524,7 +4545,7 @@
       <c r="I153" s="79"/>
       <c r="K153" s="10"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>43</v>
       </c>
@@ -4539,7 +4560,7 @@
       <c r="J154" s="1"/>
       <c r="K154" s="10"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>0</v>
       </c>
@@ -4568,7 +4589,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="10"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>1</v>
       </c>
@@ -4597,7 +4618,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="10"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>2</v>
       </c>
@@ -4626,7 +4647,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="10"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>3</v>
       </c>
@@ -4655,7 +4676,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="10"/>
     </row>
-    <row r="159" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
         <v>4</v>
       </c>
@@ -4683,7 +4704,7 @@
       </c>
       <c r="J159" s="3"/>
     </row>
-    <row r="160" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
         <v>5</v>
       </c>
@@ -4721,7 +4742,7 @@
       <c r="J160" s="27"/>
       <c r="K160" s="10"/>
     </row>
-    <row r="161" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C161" s="79"/>
       <c r="D161" s="79"/>
       <c r="E161" s="79"/>
@@ -4731,7 +4752,7 @@
       <c r="I161" s="79"/>
       <c r="K161" s="10"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>44</v>
       </c>
@@ -4746,7 +4767,7 @@
       <c r="J162" s="1"/>
       <c r="K162" s="10"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>0</v>
       </c>
@@ -4775,7 +4796,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="10"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>1</v>
       </c>
@@ -4804,7 +4825,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="10"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>2</v>
       </c>
@@ -4833,7 +4854,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="10"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>3</v>
       </c>
@@ -4862,7 +4883,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="10"/>
     </row>
-    <row r="167" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
         <v>4</v>
       </c>
@@ -4890,7 +4911,7 @@
       </c>
       <c r="J167" s="3"/>
     </row>
-    <row r="168" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
         <v>5</v>
       </c>
@@ -4928,7 +4949,7 @@
       <c r="J168" s="27"/>
       <c r="K168" s="10"/>
     </row>
-    <row r="169" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C169" s="79"/>
       <c r="D169" s="79"/>
       <c r="E169" s="79"/>
@@ -4938,7 +4959,7 @@
       <c r="I169" s="79"/>
       <c r="K169" s="10"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>10</v>
       </c>
@@ -4953,7 +4974,7 @@
       <c r="J170" s="1"/>
       <c r="K170" s="10"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>0</v>
       </c>
@@ -4982,7 +5003,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="10"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>1</v>
       </c>
@@ -5011,7 +5032,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="10"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>2</v>
       </c>
@@ -5040,7 +5061,7 @@
       <c r="J173" s="2"/>
       <c r="K173" s="10"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>3</v>
       </c>
@@ -5069,7 +5090,7 @@
       <c r="J174" s="2"/>
       <c r="K174" s="10"/>
     </row>
-    <row r="175" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>4</v>
       </c>
@@ -5097,7 +5118,7 @@
       </c>
       <c r="J175" s="3"/>
     </row>
-    <row r="176" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
         <v>5</v>
       </c>

--- a/Aanwezigheid/Presentie GL-G5.xlsx
+++ b/Aanwezigheid/Presentie GL-G5.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="53">
   <si>
     <t>Maandag</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>David werkt thuis</t>
+  </si>
+  <si>
+    <t>David werkt thuis ( Trein Gemist )</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1086,7 @@
   <dimension ref="A1:N176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1151,7 +1154,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="32">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B104+B112+B120+B128+B136+B144+B152+B168+B160+B176</f>
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="L2" s="47">
         <f>C8+C16+C24+C32+C48+C56+C64+C72+C80+C88+C96+C104+C120+C128+C136+C144+C152+C160+C168+C176</f>
@@ -1159,7 +1162,7 @@
       </c>
       <c r="M2" s="53">
         <f>L2/K2</f>
-        <v>0.54285714285714282</v>
+        <v>0.45238095238095238</v>
       </c>
       <c r="N2" s="42" t="s">
         <v>18</v>
@@ -1203,7 +1206,7 @@
       </c>
       <c r="M3" s="54">
         <f>L3/K2</f>
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="N3" s="43" t="s">
         <v>19</v>
@@ -1245,7 +1248,7 @@
       </c>
       <c r="M4" s="55">
         <f>L4/K2</f>
-        <v>0.94285714285714284</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="N4" s="44" t="s">
         <v>20</v>
@@ -1287,7 +1290,7 @@
       </c>
       <c r="M5" s="56">
         <f>L5/K2</f>
-        <v>0.62857142857142856</v>
+        <v>0.52380952380952384</v>
       </c>
       <c r="N5" s="45" t="s">
         <v>21</v>
@@ -1329,7 +1332,7 @@
       </c>
       <c r="M6" s="57">
         <f>L6/K2</f>
-        <v>0.88571428571428568</v>
+        <v>0.73809523809523814</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>22</v>
@@ -1371,7 +1374,7 @@
       </c>
       <c r="M7" s="58">
         <f>L7/K2</f>
-        <v>0.91428571428571426</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="N7" s="46" t="s">
         <v>23</v>
@@ -1420,7 +1423,7 @@
       </c>
       <c r="M8" s="39">
         <f>L8/K2</f>
-        <v>0.91428571428571426</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="N8" s="41" t="s">
         <v>24</v>
@@ -1455,7 +1458,7 @@
       </c>
       <c r="M10" s="29">
         <f>SUM(M2:M9)</f>
-        <v>5.8285714285714292</v>
+        <v>4.8571428571428568</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2199,15 +2202,33 @@
       <c r="A37" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="5"/>
+      <c r="B37" s="10">
+        <v>4</v>
+      </c>
+      <c r="C37" s="34">
+        <v>4</v>
+      </c>
+      <c r="D37" s="35">
+        <v>0</v>
+      </c>
+      <c r="E37" s="35">
+        <v>4</v>
+      </c>
+      <c r="F37" s="35">
+        <v>0</v>
+      </c>
+      <c r="G37" s="35">
+        <v>4</v>
+      </c>
+      <c r="H37" s="35">
+        <v>4</v>
+      </c>
+      <c r="I37" s="36">
+        <v>0</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="K37" s="10"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2245,11 +2266,11 @@
         <v>5</v>
       </c>
       <c r="B40" s="32">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C40" s="76">
         <f t="shared" ref="C40:G40" si="4">SUM(C35:C39)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D40" s="77">
         <f t="shared" si="4"/>
@@ -2257,7 +2278,7 @@
       </c>
       <c r="E40" s="77">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F40" s="77">
         <f t="shared" si="4"/>
@@ -2265,11 +2286,11 @@
       </c>
       <c r="G40" s="77">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H40" s="77">
         <f>SUM(H35:H39)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I40" s="77">
         <f>SUM(I35:I39)</f>

--- a/Aanwezigheid/Presentie GL-G5.xlsx
+++ b/Aanwezigheid/Presentie GL-G5.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\Important and Stuff V1\School\Year 2\Project-Ninja-Outbreak\Aanwezigheid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sepi\Documents\Important Portable Stuff V1\Year 2\Game Labs 1\Project-Ninja-Outbreak\Aanwezigheid\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="55">
   <si>
     <t>Maandag</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>David werkt thuis ( Trein Gemist )</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>LAN</t>
   </si>
 </sst>
 </file>
@@ -1085,23 +1091,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="7" customWidth="1"/>
-    <col min="3" max="9" width="10.85546875" style="84" customWidth="1"/>
-    <col min="10" max="10" width="37.7109375" customWidth="1"/>
-    <col min="11" max="11" width="27.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="25.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
+    <col min="3" max="9" width="10.88671875" style="84" customWidth="1"/>
+    <col min="10" max="10" width="37.6640625" customWidth="1"/>
+    <col min="11" max="11" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.109375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="25.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="22" t="s">
         <v>6</v>
       </c>
@@ -1139,7 +1145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
@@ -1154,7 +1160,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="32">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B104+B112+B120+B128+B136+B144+B152+B168+B160+B176</f>
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L2" s="47">
         <f>C8+C16+C24+C32+C48+C56+C64+C72+C80+C88+C96+C104+C120+C128+C136+C144+C152+C160+C168+C176</f>
@@ -1162,13 +1168,13 @@
       </c>
       <c r="M2" s="53">
         <f>L2/K2</f>
-        <v>0.45238095238095238</v>
+        <v>0.43181818181818182</v>
       </c>
       <c r="N2" s="42" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1202,17 +1208,17 @@
       <c r="K3" s="10"/>
       <c r="L3" s="48">
         <f>D8+D16+D24+D32+D48+D56+D64+D72+D80+D88+D96+D104+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M3" s="54">
         <f>L3/K2</f>
-        <v>0.83333333333333337</v>
+        <v>0.84090909090909094</v>
       </c>
       <c r="N3" s="43" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1244,17 +1250,17 @@
       <c r="K4" s="10"/>
       <c r="L4" s="49">
         <f>E8+E16+E24+E32+E48+E56+E64+E72+E80+E88+E96+E104+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M4" s="55">
         <f>L4/K2</f>
-        <v>0.7857142857142857</v>
+        <v>0.79545454545454541</v>
       </c>
       <c r="N4" s="44" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1290,13 +1296,13 @@
       </c>
       <c r="M5" s="56">
         <f>L5/K2</f>
-        <v>0.52380952380952384</v>
+        <v>0.5</v>
       </c>
       <c r="N5" s="45" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1328,17 +1334,17 @@
       <c r="K6" s="10"/>
       <c r="L6" s="51">
         <f>G8+G16+G24+G32+G48+G56+G64+G72+G80+G88+G96+G104+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M6" s="57">
         <f>L6/K2</f>
-        <v>0.73809523809523814</v>
+        <v>0.75</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -1370,17 +1376,17 @@
       <c r="K7" s="10"/>
       <c r="L7" s="52">
         <f>H8+H88+H24+H32+H48+H56+H64+H72+H80+H96+H104+H120+H128+H136+H144+H152+H160+H168+H176+H16</f>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M7" s="58">
         <f>L7/K2</f>
-        <v>0.76190476190476186</v>
+        <v>0.77272727272727271</v>
       </c>
       <c r="N7" s="46" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -1419,17 +1425,17 @@
       <c r="K8" s="10"/>
       <c r="L8" s="38">
         <f>I8+I16+I24+I32+I48+I56+I64+I72+I80+I88+I96+I104+I120+I128+I136+I144+I152+I160+I168+I176</f>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M8" s="39">
         <f>L8/K2</f>
-        <v>0.76190476190476186</v>
+        <v>0.77272727272727271</v>
       </c>
       <c r="N8" s="41" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="79"/>
       <c r="D9" s="79"/>
       <c r="E9" s="79"/>
@@ -1439,7 +1445,7 @@
       <c r="I9" s="79"/>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="59" t="s">
         <v>26</v>
       </c>
@@ -1458,10 +1464,10 @@
       </c>
       <c r="M10" s="29">
         <f>SUM(M2:M9)</f>
-        <v>4.8571428571428568</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4.8636363636363633</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="60" t="s">
         <v>0</v>
       </c>
@@ -1492,7 +1498,7 @@
       <c r="J11" s="63"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="60" t="s">
         <v>1</v>
       </c>
@@ -1529,7 +1535,7 @@
       </c>
       <c r="M12" s="87"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="60" t="s">
         <v>2</v>
       </c>
@@ -1564,7 +1570,7 @@
       </c>
       <c r="M13" s="93"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="60" t="s">
         <v>3</v>
       </c>
@@ -1599,7 +1605,7 @@
       </c>
       <c r="M14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="61" t="s">
         <v>4</v>
       </c>
@@ -1636,7 +1642,7 @@
       </c>
       <c r="M15" s="95"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="61" t="s">
         <v>5</v>
       </c>
@@ -1678,7 +1684,7 @@
       </c>
       <c r="M16" s="96"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="79"/>
       <c r="D17" s="79"/>
       <c r="E17" s="79"/>
@@ -1689,7 +1695,7 @@
       <c r="J17" s="13"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
@@ -1704,7 +1710,7 @@
       <c r="J18" s="62"/>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
@@ -1735,7 +1741,7 @@
       <c r="J19" s="63"/>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>1</v>
       </c>
@@ -1768,7 +1774,7 @@
       </c>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>2</v>
       </c>
@@ -1799,7 +1805,7 @@
       <c r="J21" s="63"/>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
@@ -1832,7 +1838,7 @@
       </c>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>4</v>
       </c>
@@ -1863,7 +1869,7 @@
       <c r="J23" s="63"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>5</v>
       </c>
@@ -1901,7 +1907,7 @@
       <c r="J24" s="27"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C25" s="79"/>
       <c r="D25" s="79"/>
       <c r="E25" s="79"/>
@@ -1910,7 +1916,7 @@
       <c r="H25" s="79"/>
       <c r="I25" s="79"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>28</v>
       </c>
@@ -1925,7 +1931,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
@@ -1958,7 +1964,7 @@
       </c>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>1</v>
       </c>
@@ -1991,7 +1997,7 @@
       </c>
       <c r="K28" s="10"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>2</v>
       </c>
@@ -2006,7 +2012,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
@@ -2037,7 +2043,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>4</v>
       </c>
@@ -2070,7 +2076,7 @@
       </c>
       <c r="K31" s="10"/>
     </row>
-    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>5</v>
       </c>
@@ -2108,7 +2114,7 @@
       <c r="J32" s="27"/>
       <c r="K32" s="10"/>
     </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C33" s="79"/>
       <c r="D33" s="79"/>
       <c r="E33" s="79"/>
@@ -2116,8 +2122,11 @@
       <c r="G33" s="79"/>
       <c r="H33" s="79"/>
       <c r="I33" s="79"/>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L33" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>30</v>
       </c>
@@ -2134,7 +2143,7 @@
       </c>
       <c r="K34" s="10"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>0</v>
       </c>
@@ -2165,7 +2174,7 @@
       <c r="J35" s="5"/>
       <c r="K35" s="10"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>1</v>
       </c>
@@ -2198,30 +2207,30 @@
       </c>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B37" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C37" s="34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D37" s="35">
         <v>0</v>
       </c>
       <c r="E37" s="35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F37" s="35">
         <v>0</v>
       </c>
       <c r="G37" s="35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H37" s="35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I37" s="36">
         <v>0</v>
@@ -2231,37 +2240,71 @@
       </c>
       <c r="K37" s="10"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="36"/>
+      <c r="B38" s="10">
+        <v>4</v>
+      </c>
+      <c r="C38" s="34">
+        <v>4</v>
+      </c>
+      <c r="D38" s="35">
+        <v>0</v>
+      </c>
+      <c r="E38" s="35">
+        <v>4</v>
+      </c>
+      <c r="F38" s="35">
+        <v>0</v>
+      </c>
+      <c r="G38" s="35">
+        <v>4</v>
+      </c>
+      <c r="H38" s="35">
+        <v>4</v>
+      </c>
+      <c r="I38" s="36">
+        <v>0</v>
+      </c>
       <c r="J38" s="5"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="80"/>
-      <c r="H39" s="80"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="5"/>
+      <c r="B39" s="9">
+        <v>0</v>
+      </c>
+      <c r="C39" s="82">
+        <v>0</v>
+      </c>
+      <c r="D39" s="80">
+        <v>0</v>
+      </c>
+      <c r="E39" s="80">
+        <v>0</v>
+      </c>
+      <c r="F39" s="80">
+        <v>0</v>
+      </c>
+      <c r="G39" s="80">
+        <v>0</v>
+      </c>
+      <c r="H39" s="80">
+        <v>0</v>
+      </c>
+      <c r="I39" s="81">
+        <v>0</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>5</v>
       </c>
@@ -2298,10 +2341,10 @@
       </c>
       <c r="J40" s="27"/>
     </row>
-    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>29</v>
       </c>
@@ -2316,22 +2359,34 @@
       <c r="J42" s="1"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="10"/>
+      <c r="B43" s="10">
+        <v>4</v>
+      </c>
       <c r="C43" s="34"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
+      <c r="D43" s="35">
+        <v>4</v>
+      </c>
+      <c r="E43" s="35">
+        <v>4</v>
+      </c>
       <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="36"/>
+      <c r="G43" s="35">
+        <v>4</v>
+      </c>
+      <c r="H43" s="35">
+        <v>4</v>
+      </c>
+      <c r="I43" s="36">
+        <v>4</v>
+      </c>
       <c r="J43" s="2"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>1</v>
       </c>
@@ -2346,7 +2401,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>2</v>
       </c>
@@ -2361,7 +2416,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>3</v>
       </c>
@@ -2376,7 +2431,7 @@
       <c r="J46" s="2"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>4</v>
       </c>
@@ -2391,12 +2446,12 @@
       <c r="J47" s="3"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B48" s="32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C48" s="76">
         <f t="shared" ref="C48:G48" si="5">SUM(C43:C47)</f>
@@ -2404,11 +2459,11 @@
       </c>
       <c r="D48" s="77">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E48" s="77">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F48" s="77">
         <f t="shared" si="5"/>
@@ -2416,19 +2471,19 @@
       </c>
       <c r="G48" s="77">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H48" s="77">
         <f>SUM(H43:H47)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I48" s="77">
         <f>SUM(I43:I47)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J48" s="27"/>
     </row>
-    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C49" s="79"/>
       <c r="D49" s="79"/>
       <c r="E49" s="79"/>
@@ -2438,7 +2493,7 @@
       <c r="I49" s="79"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>31</v>
       </c>
@@ -2453,7 +2508,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>0</v>
       </c>
@@ -2468,7 +2523,7 @@
       <c r="J51" s="2"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>1</v>
       </c>
@@ -2483,7 +2538,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>2</v>
       </c>
@@ -2498,7 +2553,7 @@
       <c r="J53" s="2"/>
       <c r="K53" s="10"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>3</v>
       </c>
@@ -2513,7 +2568,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="10"/>
     </row>
-    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>4</v>
       </c>
@@ -2528,7 +2583,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="10"/>
     </row>
-    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>5</v>
       </c>
@@ -2565,7 +2620,7 @@
       </c>
       <c r="J56" s="31"/>
     </row>
-    <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C57" s="79"/>
       <c r="D57" s="79"/>
       <c r="E57" s="79"/>
@@ -2575,7 +2630,7 @@
       <c r="I57" s="79"/>
       <c r="K57" s="10"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>32</v>
       </c>
@@ -2590,7 +2645,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="10"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>0</v>
       </c>
@@ -2605,7 +2660,7 @@
       <c r="J59" s="2"/>
       <c r="K59" s="10"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>1</v>
       </c>
@@ -2620,7 +2675,7 @@
       <c r="J60" s="2"/>
       <c r="K60" s="10"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>2</v>
       </c>
@@ -2635,7 +2690,7 @@
       <c r="J61" s="2"/>
       <c r="K61" s="10"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>3</v>
       </c>
@@ -2650,7 +2705,7 @@
       <c r="J62" s="2"/>
       <c r="K62" s="10"/>
     </row>
-    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>4</v>
       </c>
@@ -2665,7 +2720,7 @@
       <c r="J63" s="3"/>
       <c r="K63" s="10"/>
     </row>
-    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>5</v>
       </c>
@@ -2702,7 +2757,7 @@
       </c>
       <c r="J64" s="31"/>
     </row>
-    <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B65" s="10"/>
       <c r="C65" s="83"/>
       <c r="D65" s="83"/>
@@ -2714,7 +2769,7 @@
       <c r="J65" s="1"/>
       <c r="K65" s="10"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>33</v>
       </c>
@@ -2729,7 +2784,7 @@
       <c r="J66" s="15"/>
       <c r="K66" s="10"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>0</v>
       </c>
@@ -2744,7 +2799,7 @@
       <c r="J67" s="17"/>
       <c r="K67" s="10"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>1</v>
       </c>
@@ -2759,7 +2814,7 @@
       <c r="J68" s="17"/>
       <c r="K68" s="10"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>2</v>
       </c>
@@ -2774,7 +2829,7 @@
       <c r="J69" s="17"/>
       <c r="K69" s="10"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>3</v>
       </c>
@@ -2789,7 +2844,7 @@
       <c r="J70" s="17"/>
       <c r="K70" s="10"/>
     </row>
-    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>4</v>
       </c>
@@ -2804,7 +2859,7 @@
       <c r="J71" s="19"/>
       <c r="K71" s="10"/>
     </row>
-    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="27" t="s">
         <v>5</v>
       </c>
@@ -2841,7 +2896,7 @@
       </c>
       <c r="J72" s="31"/>
     </row>
-    <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C73" s="79"/>
       <c r="D73" s="79"/>
       <c r="E73" s="79"/>
@@ -2851,7 +2906,7 @@
       <c r="I73" s="79"/>
       <c r="K73" s="10"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>34</v>
       </c>
@@ -2866,7 +2921,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="10"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>0</v>
       </c>
@@ -2881,7 +2936,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="10"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>1</v>
       </c>
@@ -2896,7 +2951,7 @@
       <c r="J76" s="2"/>
       <c r="K76" s="10"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>2</v>
       </c>
@@ -2911,7 +2966,7 @@
       <c r="J77" s="2"/>
       <c r="K77" s="10"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>3</v>
       </c>
@@ -2926,7 +2981,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="10"/>
     </row>
-    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>4</v>
       </c>
@@ -2941,7 +2996,7 @@
       <c r="J79" s="3"/>
       <c r="K79" s="10"/>
     </row>
-    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>5</v>
       </c>
@@ -2978,7 +3033,7 @@
       </c>
       <c r="J80" s="31"/>
     </row>
-    <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C81" s="79"/>
       <c r="D81" s="79"/>
       <c r="E81" s="79"/>
@@ -2988,7 +3043,7 @@
       <c r="I81" s="79"/>
       <c r="K81" s="10"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>35</v>
       </c>
@@ -3003,7 +3058,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="10"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>0</v>
       </c>
@@ -3018,7 +3073,7 @@
       <c r="J83" s="2"/>
       <c r="K83" s="10"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>1</v>
       </c>
@@ -3033,7 +3088,7 @@
       <c r="J84" s="2"/>
       <c r="K84" s="10"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>2</v>
       </c>
@@ -3048,7 +3103,7 @@
       <c r="J85" s="2"/>
       <c r="K85" s="10"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>3</v>
       </c>
@@ -3063,7 +3118,7 @@
       <c r="J86" s="2"/>
       <c r="K86" s="10"/>
     </row>
-    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>4</v>
       </c>
@@ -3078,7 +3133,7 @@
       <c r="J87" s="3"/>
       <c r="K87" s="10"/>
     </row>
-    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
         <v>5</v>
       </c>
@@ -3115,7 +3170,7 @@
       </c>
       <c r="J88" s="31"/>
     </row>
-    <row r="89" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C89" s="79"/>
       <c r="D89" s="79"/>
       <c r="E89" s="79"/>
@@ -3125,7 +3180,7 @@
       <c r="I89" s="79"/>
       <c r="K89" s="10"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>36</v>
       </c>
@@ -3140,7 +3195,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="10"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>0</v>
       </c>
@@ -3155,7 +3210,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="10"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>1</v>
       </c>
@@ -3170,7 +3225,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="10"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>2</v>
       </c>
@@ -3185,7 +3240,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="10"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>3</v>
       </c>
@@ -3200,7 +3255,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="10"/>
     </row>
-    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>4</v>
       </c>
@@ -3215,7 +3270,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="10"/>
     </row>
-    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="6" t="s">
         <v>5</v>
       </c>
@@ -3252,7 +3307,7 @@
       </c>
       <c r="J96" s="31"/>
     </row>
-    <row r="97" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C97" s="79"/>
       <c r="D97" s="79"/>
       <c r="E97" s="79"/>
@@ -3262,7 +3317,7 @@
       <c r="I97" s="79"/>
       <c r="K97" s="10"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>37</v>
       </c>
@@ -3277,7 +3332,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="10"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>0</v>
       </c>
@@ -3292,7 +3347,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="10"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>1</v>
       </c>
@@ -3307,7 +3362,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="10"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>2</v>
       </c>
@@ -3322,7 +3377,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="10"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>3</v>
       </c>
@@ -3337,7 +3392,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="10"/>
     </row>
-    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>4</v>
       </c>
@@ -3352,7 +3407,7 @@
       <c r="J103" s="3"/>
       <c r="K103" s="10"/>
     </row>
-    <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="6" t="s">
         <v>5</v>
       </c>
@@ -3389,7 +3444,7 @@
       </c>
       <c r="J104" s="27"/>
     </row>
-    <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C105" s="79"/>
       <c r="D105" s="79"/>
       <c r="E105" s="79"/>
@@ -3399,7 +3454,7 @@
       <c r="I105" s="79"/>
       <c r="K105" s="10"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>37</v>
       </c>
@@ -3414,7 +3469,7 @@
       <c r="J106" s="1"/>
       <c r="K106" s="10"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>0</v>
       </c>
@@ -3429,7 +3484,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="10"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>1</v>
       </c>
@@ -3444,7 +3499,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="10"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>2</v>
       </c>
@@ -3459,7 +3514,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="10"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>3</v>
       </c>
@@ -3474,7 +3529,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="10"/>
     </row>
-    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="6" t="s">
         <v>4</v>
       </c>
@@ -3488,7 +3543,7 @@
       <c r="I111" s="81"/>
       <c r="J111" s="3"/>
     </row>
-    <row r="112" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="6" t="s">
         <v>5</v>
       </c>
@@ -3526,10 +3581,10 @@
       <c r="J112" s="27"/>
       <c r="K112" s="10"/>
     </row>
-    <row r="113" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K113" s="10"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>38</v>
       </c>
@@ -3544,7 +3599,7 @@
       <c r="J114" s="1"/>
       <c r="K114" s="10"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>0</v>
       </c>
@@ -3573,7 +3628,7 @@
       <c r="J115" s="2"/>
       <c r="K115" s="10"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>1</v>
       </c>
@@ -3602,7 +3657,7 @@
       <c r="J116" s="2"/>
       <c r="K116" s="10"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>2</v>
       </c>
@@ -3631,7 +3686,7 @@
       <c r="J117" s="2"/>
       <c r="K117" s="10"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>3</v>
       </c>
@@ -3660,7 +3715,7 @@
       <c r="J118" s="2"/>
       <c r="K118" s="10"/>
     </row>
-    <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="6" t="s">
         <v>4</v>
       </c>
@@ -3688,7 +3743,7 @@
       </c>
       <c r="J119" s="3"/>
     </row>
-    <row r="120" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="6" t="s">
         <v>5</v>
       </c>
@@ -3726,7 +3781,7 @@
       <c r="J120" s="27"/>
       <c r="K120" s="10"/>
     </row>
-    <row r="121" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C121" s="79"/>
       <c r="D121" s="79"/>
       <c r="E121" s="79"/>
@@ -3736,7 +3791,7 @@
       <c r="I121" s="79"/>
       <c r="K121" s="10"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>39</v>
       </c>
@@ -3751,7 +3806,7 @@
       <c r="J122" s="1"/>
       <c r="K122" s="10"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>0</v>
       </c>
@@ -3780,7 +3835,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="10"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>1</v>
       </c>
@@ -3809,7 +3864,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="10"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>2</v>
       </c>
@@ -3838,7 +3893,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="10"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>3</v>
       </c>
@@ -3867,7 +3922,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="10"/>
     </row>
-    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="6" t="s">
         <v>4</v>
       </c>
@@ -3895,7 +3950,7 @@
       </c>
       <c r="J127" s="3"/>
     </row>
-    <row r="128" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="6" t="s">
         <v>5</v>
       </c>
@@ -3933,7 +3988,7 @@
       <c r="J128" s="27"/>
       <c r="K128" s="10"/>
     </row>
-    <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C129" s="79"/>
       <c r="D129" s="79"/>
       <c r="E129" s="79"/>
@@ -3943,7 +3998,7 @@
       <c r="I129" s="79"/>
       <c r="K129" s="10"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>40</v>
       </c>
@@ -3958,7 +4013,7 @@
       <c r="J130" s="1"/>
       <c r="K130" s="10"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>0</v>
       </c>
@@ -3987,7 +4042,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="10"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>1</v>
       </c>
@@ -4016,7 +4071,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="10"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>2</v>
       </c>
@@ -4045,7 +4100,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="10"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>3</v>
       </c>
@@ -4074,7 +4129,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="10"/>
     </row>
-    <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="6" t="s">
         <v>4</v>
       </c>
@@ -4102,7 +4157,7 @@
       </c>
       <c r="J135" s="3"/>
     </row>
-    <row r="136" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="6" t="s">
         <v>5</v>
       </c>
@@ -4140,7 +4195,7 @@
       <c r="J136" s="27"/>
       <c r="K136" s="10"/>
     </row>
-    <row r="137" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C137" s="79"/>
       <c r="D137" s="79"/>
       <c r="E137" s="79"/>
@@ -4150,7 +4205,7 @@
       <c r="I137" s="79"/>
       <c r="K137" s="10"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>41</v>
       </c>
@@ -4165,7 +4220,7 @@
       <c r="J138" s="15"/>
       <c r="K138" s="10"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>0</v>
       </c>
@@ -4194,7 +4249,7 @@
       <c r="J139" s="17"/>
       <c r="K139" s="10"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>1</v>
       </c>
@@ -4223,7 +4278,7 @@
       <c r="J140" s="17"/>
       <c r="K140" s="10"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>2</v>
       </c>
@@ -4252,7 +4307,7 @@
       <c r="J141" s="17"/>
       <c r="K141" s="10"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
         <v>3</v>
       </c>
@@ -4281,7 +4336,7 @@
       <c r="J142" s="17"/>
       <c r="K142" s="10"/>
     </row>
-    <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
         <v>4</v>
       </c>
@@ -4309,7 +4364,7 @@
       </c>
       <c r="J143" s="19"/>
     </row>
-    <row r="144" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="6" t="s">
         <v>5</v>
       </c>
@@ -4347,7 +4402,7 @@
       <c r="J144" s="85"/>
       <c r="K144" s="10"/>
     </row>
-    <row r="145" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B145" s="20"/>
       <c r="C145" s="79"/>
       <c r="D145" s="79"/>
@@ -4359,7 +4414,7 @@
       <c r="J145" s="21"/>
       <c r="K145" s="10"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
         <v>42</v>
       </c>
@@ -4374,7 +4429,7 @@
       <c r="J146" s="15"/>
       <c r="K146" s="10"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>0</v>
       </c>
@@ -4403,7 +4458,7 @@
       <c r="J147" s="17"/>
       <c r="K147" s="10"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
         <v>1</v>
       </c>
@@ -4432,7 +4487,7 @@
       <c r="J148" s="17"/>
       <c r="K148" s="10"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
         <v>2</v>
       </c>
@@ -4461,7 +4516,7 @@
       <c r="J149" s="17"/>
       <c r="K149" s="10"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
         <v>3</v>
       </c>
@@ -4490,7 +4545,7 @@
       <c r="J150" s="17"/>
       <c r="K150" s="10"/>
     </row>
-    <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
         <v>4</v>
       </c>
@@ -4518,7 +4573,7 @@
       </c>
       <c r="J151" s="19"/>
     </row>
-    <row r="152" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="6" t="s">
         <v>5</v>
       </c>
@@ -4556,7 +4611,7 @@
       <c r="J152" s="27"/>
       <c r="K152" s="10"/>
     </row>
-    <row r="153" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C153" s="79"/>
       <c r="D153" s="79"/>
       <c r="E153" s="79"/>
@@ -4566,7 +4621,7 @@
       <c r="I153" s="79"/>
       <c r="K153" s="10"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>43</v>
       </c>
@@ -4581,7 +4636,7 @@
       <c r="J154" s="1"/>
       <c r="K154" s="10"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>0</v>
       </c>
@@ -4610,7 +4665,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="10"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>1</v>
       </c>
@@ -4639,7 +4694,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="10"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>2</v>
       </c>
@@ -4668,7 +4723,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="10"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
         <v>3</v>
       </c>
@@ -4697,7 +4752,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="10"/>
     </row>
-    <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="6" t="s">
         <v>4</v>
       </c>
@@ -4725,7 +4780,7 @@
       </c>
       <c r="J159" s="3"/>
     </row>
-    <row r="160" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="6" t="s">
         <v>5</v>
       </c>
@@ -4763,7 +4818,7 @@
       <c r="J160" s="27"/>
       <c r="K160" s="10"/>
     </row>
-    <row r="161" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C161" s="79"/>
       <c r="D161" s="79"/>
       <c r="E161" s="79"/>
@@ -4773,7 +4828,7 @@
       <c r="I161" s="79"/>
       <c r="K161" s="10"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>44</v>
       </c>
@@ -4788,7 +4843,7 @@
       <c r="J162" s="1"/>
       <c r="K162" s="10"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>0</v>
       </c>
@@ -4817,7 +4872,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="10"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>1</v>
       </c>
@@ -4846,7 +4901,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="10"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
         <v>2</v>
       </c>
@@ -4875,7 +4930,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="10"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
         <v>3</v>
       </c>
@@ -4904,7 +4959,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="10"/>
     </row>
-    <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="6" t="s">
         <v>4</v>
       </c>
@@ -4932,7 +4987,7 @@
       </c>
       <c r="J167" s="3"/>
     </row>
-    <row r="168" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="6" t="s">
         <v>5</v>
       </c>
@@ -4970,7 +5025,7 @@
       <c r="J168" s="27"/>
       <c r="K168" s="10"/>
     </row>
-    <row r="169" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C169" s="79"/>
       <c r="D169" s="79"/>
       <c r="E169" s="79"/>
@@ -4980,7 +5035,7 @@
       <c r="I169" s="79"/>
       <c r="K169" s="10"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>10</v>
       </c>
@@ -4995,7 +5050,7 @@
       <c r="J170" s="1"/>
       <c r="K170" s="10"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>0</v>
       </c>
@@ -5024,7 +5079,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="10"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>1</v>
       </c>
@@ -5053,7 +5108,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="10"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>2</v>
       </c>
@@ -5082,7 +5137,7 @@
       <c r="J173" s="2"/>
       <c r="K173" s="10"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
         <v>3</v>
       </c>
@@ -5111,7 +5166,7 @@
       <c r="J174" s="2"/>
       <c r="K174" s="10"/>
     </row>
-    <row r="175" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="6" t="s">
         <v>4</v>
       </c>
@@ -5139,7 +5194,7 @@
       </c>
       <c r="J175" s="3"/>
     </row>
-    <row r="176" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="6" t="s">
         <v>5</v>
       </c>

--- a/Aanwezigheid/Presentie GL-G5.xlsx
+++ b/Aanwezigheid/Presentie GL-G5.xlsx
@@ -1091,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1208,11 +1208,11 @@
       <c r="K3" s="10"/>
       <c r="L3" s="48">
         <f>D8+D16+D24+D32+D48+D56+D64+D72+D80+D88+D96+D104+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M3" s="54">
         <f>L3/K2</f>
-        <v>0.84090909090909094</v>
+        <v>0.88636363636363635</v>
       </c>
       <c r="N3" s="43" t="s">
         <v>19</v>
@@ -1250,11 +1250,11 @@
       <c r="K4" s="10"/>
       <c r="L4" s="49">
         <f>E8+E16+E24+E32+E48+E56+E64+E72+E80+E88+E96+E104+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M4" s="55">
         <f>L4/K2</f>
-        <v>0.79545454545454541</v>
+        <v>0.84090909090909094</v>
       </c>
       <c r="N4" s="44" t="s">
         <v>20</v>
@@ -1334,11 +1334,11 @@
       <c r="K6" s="10"/>
       <c r="L6" s="51">
         <f>G8+G16+G24+G32+G48+G56+G64+G72+G80+G88+G96+G104+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M6" s="57">
         <f>L6/K2</f>
-        <v>0.75</v>
+        <v>0.79545454545454541</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>22</v>
@@ -1376,11 +1376,11 @@
       <c r="K7" s="10"/>
       <c r="L7" s="52">
         <f>H8+H88+H24+H32+H48+H56+H64+H72+H80+H96+H104+H120+H128+H136+H144+H152+H160+H168+H176+H16</f>
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M7" s="58">
         <f>L7/K2</f>
-        <v>0.77272727272727271</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="N7" s="46" t="s">
         <v>23</v>
@@ -1425,11 +1425,11 @@
       <c r="K8" s="10"/>
       <c r="L8" s="38">
         <f>I8+I16+I24+I32+I48+I56+I64+I72+I80+I88+I96+I104+I120+I128+I136+I144+I152+I160+I168+I176</f>
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M8" s="39">
         <f>L8/K2</f>
-        <v>0.77272727272727271</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="N8" s="41" t="s">
         <v>24</v>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="M10" s="29">
         <f>SUM(M2:M9)</f>
-        <v>4.8636363636363633</v>
+        <v>5.0909090909090908</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2390,14 +2390,26 @@
       <c r="A44" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="10"/>
+      <c r="B44" s="10">
+        <v>6</v>
+      </c>
       <c r="C44" s="34"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
+      <c r="D44" s="35">
+        <v>4</v>
+      </c>
+      <c r="E44" s="35">
+        <v>4</v>
+      </c>
       <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="36"/>
+      <c r="G44" s="35">
+        <v>4</v>
+      </c>
+      <c r="H44" s="35">
+        <v>4</v>
+      </c>
+      <c r="I44" s="36">
+        <v>4</v>
+      </c>
       <c r="J44" s="2"/>
       <c r="K44" s="10"/>
     </row>
@@ -2459,11 +2471,11 @@
       </c>
       <c r="D48" s="77">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E48" s="77">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F48" s="77">
         <f t="shared" si="5"/>
@@ -2471,15 +2483,15 @@
       </c>
       <c r="G48" s="77">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H48" s="77">
         <f>SUM(H43:H47)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I48" s="77">
         <f>SUM(I43:I47)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J48" s="27"/>
     </row>

--- a/Aanwezigheid/Presentie GL-G5.xlsx
+++ b/Aanwezigheid/Presentie GL-G5.xlsx
@@ -1091,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1208,11 +1208,11 @@
       <c r="K3" s="10"/>
       <c r="L3" s="48">
         <f>D8+D16+D24+D32+D48+D56+D64+D72+D80+D88+D96+D104+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="M3" s="54">
         <f>L3/K2</f>
-        <v>0.88636363636363635</v>
+        <v>0.95454545454545459</v>
       </c>
       <c r="N3" s="43" t="s">
         <v>19</v>
@@ -1250,11 +1250,11 @@
       <c r="K4" s="10"/>
       <c r="L4" s="49">
         <f>E8+E16+E24+E32+E48+E56+E64+E72+E80+E88+E96+E104+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M4" s="55">
         <f>L4/K2</f>
-        <v>0.84090909090909094</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="N4" s="44" t="s">
         <v>20</v>
@@ -1334,11 +1334,11 @@
       <c r="K6" s="10"/>
       <c r="L6" s="51">
         <f>G8+G16+G24+G32+G48+G56+G64+G72+G80+G88+G96+G104+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="M6" s="57">
         <f>L6/K2</f>
-        <v>0.79545454545454541</v>
+        <v>0.86363636363636365</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>22</v>
@@ -1376,11 +1376,11 @@
       <c r="K7" s="10"/>
       <c r="L7" s="52">
         <f>H8+H88+H24+H32+H48+H56+H64+H72+H80+H96+H104+H120+H128+H136+H144+H152+H160+H168+H176+H16</f>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M7" s="58">
         <f>L7/K2</f>
-        <v>0.81818181818181823</v>
+        <v>0.88636363636363635</v>
       </c>
       <c r="N7" s="46" t="s">
         <v>23</v>
@@ -1425,11 +1425,11 @@
       <c r="K8" s="10"/>
       <c r="L8" s="38">
         <f>I8+I16+I24+I32+I48+I56+I64+I72+I80+I88+I96+I104+I120+I128+I136+I144+I152+I160+I168+I176</f>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M8" s="39">
         <f>L8/K2</f>
-        <v>0.81818181818181823</v>
+        <v>0.88636363636363635</v>
       </c>
       <c r="N8" s="41" t="s">
         <v>24</v>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="M10" s="29">
         <f>SUM(M2:M9)</f>
-        <v>5.0909090909090908</v>
+        <v>5.4318181818181825</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2395,20 +2395,20 @@
       </c>
       <c r="C44" s="34"/>
       <c r="D44" s="35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E44" s="35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F44" s="35"/>
       <c r="G44" s="35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H44" s="35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I44" s="36">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="10"/>
@@ -2432,14 +2432,26 @@
       <c r="A46" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="10"/>
+      <c r="B46" s="10">
+        <v>4</v>
+      </c>
       <c r="C46" s="34"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
+      <c r="D46" s="35">
+        <v>4</v>
+      </c>
+      <c r="E46" s="35">
+        <v>4</v>
+      </c>
       <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="36"/>
+      <c r="G46" s="35">
+        <v>4</v>
+      </c>
+      <c r="H46" s="35">
+        <v>4</v>
+      </c>
+      <c r="I46" s="36">
+        <v>4</v>
+      </c>
       <c r="J46" s="2"/>
       <c r="K46" s="10"/>
     </row>
@@ -2471,11 +2483,11 @@
       </c>
       <c r="D48" s="77">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E48" s="77">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F48" s="77">
         <f t="shared" si="5"/>
@@ -2483,15 +2495,15 @@
       </c>
       <c r="G48" s="77">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H48" s="77">
         <f>SUM(H43:H47)</f>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I48" s="77">
         <f>SUM(I43:I47)</f>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J48" s="27"/>
     </row>

--- a/Aanwezigheid/Presentie GL-G5.xlsx
+++ b/Aanwezigheid/Presentie GL-G5.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="54">
   <si>
     <t>Maandag</t>
   </si>
@@ -183,9 +183,6 @@
   </si>
   <si>
     <t>David werkt thuis ( Trein Gemist )</t>
-  </si>
-  <si>
-    <t>o</t>
   </si>
   <si>
     <t>LAN</t>
@@ -1091,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1208,11 +1205,11 @@
       <c r="K3" s="10"/>
       <c r="L3" s="48">
         <f>D8+D16+D24+D32+D48+D56+D64+D72+D80+D88+D96+D104+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M3" s="54">
         <f>L3/K2</f>
-        <v>0.95454545454545459</v>
+        <v>1</v>
       </c>
       <c r="N3" s="43" t="s">
         <v>19</v>
@@ -1250,11 +1247,11 @@
       <c r="K4" s="10"/>
       <c r="L4" s="49">
         <f>E8+E16+E24+E32+E48+E56+E64+E72+E80+E88+E96+E104+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M4" s="55">
         <f>L4/K2</f>
-        <v>0.90909090909090906</v>
+        <v>0.95454545454545459</v>
       </c>
       <c r="N4" s="44" t="s">
         <v>20</v>
@@ -1334,11 +1331,11 @@
       <c r="K6" s="10"/>
       <c r="L6" s="51">
         <f>G8+G16+G24+G32+G48+G56+G64+G72+G80+G88+G96+G104+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M6" s="57">
         <f>L6/K2</f>
-        <v>0.86363636363636365</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>22</v>
@@ -1376,11 +1373,11 @@
       <c r="K7" s="10"/>
       <c r="L7" s="52">
         <f>H8+H88+H24+H32+H48+H56+H64+H72+H80+H96+H104+H120+H128+H136+H144+H152+H160+H168+H176+H16</f>
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M7" s="58">
         <f>L7/K2</f>
-        <v>0.88636363636363635</v>
+        <v>0.93181818181818177</v>
       </c>
       <c r="N7" s="46" t="s">
         <v>23</v>
@@ -1425,11 +1422,11 @@
       <c r="K8" s="10"/>
       <c r="L8" s="38">
         <f>I8+I16+I24+I32+I48+I56+I64+I72+I80+I88+I96+I104+I120+I128+I136+I144+I152+I160+I168+I176</f>
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M8" s="39">
         <f>L8/K2</f>
-        <v>0.88636363636363635</v>
+        <v>0.93181818181818177</v>
       </c>
       <c r="N8" s="41" t="s">
         <v>24</v>
@@ -1464,7 +1461,7 @@
       </c>
       <c r="M10" s="29">
         <f>SUM(M2:M9)</f>
-        <v>5.4318181818181825</v>
+        <v>5.6590909090909092</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2114,7 +2111,7 @@
       <c r="J32" s="27"/>
       <c r="K32" s="10"/>
     </row>
-    <row r="33" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C33" s="79"/>
       <c r="D33" s="79"/>
       <c r="E33" s="79"/>
@@ -2122,11 +2119,8 @@
       <c r="G33" s="79"/>
       <c r="H33" s="79"/>
       <c r="I33" s="79"/>
-      <c r="L33" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>30</v>
       </c>
@@ -2143,7 +2137,7 @@
       </c>
       <c r="K34" s="10"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>0</v>
       </c>
@@ -2174,7 +2168,7 @@
       <c r="J35" s="5"/>
       <c r="K35" s="10"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>1</v>
       </c>
@@ -2207,7 +2201,7 @@
       </c>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>2</v>
       </c>
@@ -2240,7 +2234,7 @@
       </c>
       <c r="K37" s="10"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>3</v>
       </c>
@@ -2271,7 +2265,7 @@
       <c r="J38" s="5"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>4</v>
       </c>
@@ -2300,11 +2294,11 @@
         <v>0</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>5</v>
       </c>
@@ -2341,10 +2335,10 @@
       </c>
       <c r="J40" s="27"/>
     </row>
-    <row r="41" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>29</v>
       </c>
@@ -2359,7 +2353,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>0</v>
       </c>
@@ -2386,7 +2380,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>1</v>
       </c>
@@ -2413,7 +2407,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>2</v>
       </c>
@@ -2428,7 +2422,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>3</v>
       </c>
@@ -2455,22 +2449,34 @@
       <c r="J46" s="2"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="9"/>
+      <c r="B47" s="9">
+        <v>4</v>
+      </c>
       <c r="C47" s="82"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="80"/>
+      <c r="D47" s="80">
+        <v>4</v>
+      </c>
+      <c r="E47" s="80">
+        <v>4</v>
+      </c>
       <c r="F47" s="80"/>
-      <c r="G47" s="80"/>
-      <c r="H47" s="80"/>
-      <c r="I47" s="81"/>
+      <c r="G47" s="80">
+        <v>4</v>
+      </c>
+      <c r="H47" s="80">
+        <v>4</v>
+      </c>
+      <c r="I47" s="81">
+        <v>4</v>
+      </c>
       <c r="J47" s="3"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>5</v>
       </c>
@@ -2483,11 +2489,11 @@
       </c>
       <c r="D48" s="77">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E48" s="77">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F48" s="77">
         <f t="shared" si="5"/>
@@ -2495,15 +2501,15 @@
       </c>
       <c r="G48" s="77">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H48" s="77">
         <f>SUM(H43:H47)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I48" s="77">
         <f>SUM(I43:I47)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J48" s="27"/>
     </row>

--- a/Aanwezigheid/Presentie GL-G5.xlsx
+++ b/Aanwezigheid/Presentie GL-G5.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="55">
   <si>
     <t>Maandag</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>LAN</t>
+  </si>
+  <si>
+    <t>Vakantie</t>
   </si>
 </sst>
 </file>
@@ -1088,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1157,7 +1160,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="32">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B104+B112+B120+B128+B136+B144+B152+B168+B160+B176</f>
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="L2" s="47">
         <f>C8+C16+C24+C32+C48+C56+C64+C72+C80+C88+C96+C104+C120+C128+C136+C144+C152+C160+C168+C176</f>
@@ -1165,7 +1168,7 @@
       </c>
       <c r="M2" s="53">
         <f>L2/K2</f>
-        <v>0.43181818181818182</v>
+        <v>0.35849056603773582</v>
       </c>
       <c r="N2" s="42" t="s">
         <v>18</v>
@@ -1205,11 +1208,11 @@
       <c r="K3" s="10"/>
       <c r="L3" s="48">
         <f>D8+D16+D24+D32+D48+D56+D64+D72+D80+D88+D96+D104+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M3" s="54">
         <f>L3/K2</f>
-        <v>1</v>
+        <v>0.86792452830188682</v>
       </c>
       <c r="N3" s="43" t="s">
         <v>19</v>
@@ -1247,11 +1250,11 @@
       <c r="K4" s="10"/>
       <c r="L4" s="49">
         <f>E8+E16+E24+E32+E48+E56+E64+E72+E80+E88+E96+E104+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M4" s="55">
         <f>L4/K2</f>
-        <v>0.95454545454545459</v>
+        <v>0.83018867924528306</v>
       </c>
       <c r="N4" s="44" t="s">
         <v>20</v>
@@ -1293,7 +1296,7 @@
       </c>
       <c r="M5" s="56">
         <f>L5/K2</f>
-        <v>0.5</v>
+        <v>0.41509433962264153</v>
       </c>
       <c r="N5" s="45" t="s">
         <v>21</v>
@@ -1331,11 +1334,11 @@
       <c r="K6" s="10"/>
       <c r="L6" s="51">
         <f>G8+G16+G24+G32+G48+G56+G64+G72+G80+G88+G96+G104+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M6" s="57">
         <f>L6/K2</f>
-        <v>0.90909090909090906</v>
+        <v>0.79245283018867929</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>22</v>
@@ -1373,11 +1376,11 @@
       <c r="K7" s="10"/>
       <c r="L7" s="52">
         <f>H8+H88+H24+H32+H48+H56+H64+H72+H80+H96+H104+H120+H128+H136+H144+H152+H160+H168+H176+H16</f>
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M7" s="58">
         <f>L7/K2</f>
-        <v>0.93181818181818177</v>
+        <v>0.81132075471698117</v>
       </c>
       <c r="N7" s="46" t="s">
         <v>23</v>
@@ -1422,11 +1425,11 @@
       <c r="K8" s="10"/>
       <c r="L8" s="38">
         <f>I8+I16+I24+I32+I48+I56+I64+I72+I80+I88+I96+I104+I120+I128+I136+I144+I152+I160+I168+I176</f>
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M8" s="39">
         <f>L8/K2</f>
-        <v>0.93181818181818177</v>
+        <v>0.81132075471698117</v>
       </c>
       <c r="N8" s="41" t="s">
         <v>24</v>
@@ -1461,7 +1464,7 @@
       </c>
       <c r="M10" s="29">
         <f>SUM(M2:M9)</f>
-        <v>5.6590909090909092</v>
+        <v>4.8867924528301874</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2481,7 +2484,7 @@
         <v>5</v>
       </c>
       <c r="B48" s="32">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C48" s="76">
         <f t="shared" ref="C48:G48" si="5">SUM(C43:C47)</f>
@@ -2527,7 +2530,9 @@
       <c r="A50" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B50" s="8"/>
+      <c r="B50" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="C50" s="73"/>
       <c r="D50" s="74"/>
       <c r="E50" s="74"/>
@@ -2679,14 +2684,26 @@
       <c r="A59" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B59" s="10"/>
+      <c r="B59" s="10">
+        <v>4</v>
+      </c>
       <c r="C59" s="34"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
+      <c r="D59" s="35">
+        <v>4</v>
+      </c>
+      <c r="E59" s="35">
+        <v>4</v>
+      </c>
       <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="36"/>
+      <c r="G59" s="35">
+        <v>4</v>
+      </c>
+      <c r="H59" s="35">
+        <v>4</v>
+      </c>
+      <c r="I59" s="36">
+        <v>4</v>
+      </c>
       <c r="J59" s="2"/>
       <c r="K59" s="10"/>
     </row>
@@ -2755,7 +2772,7 @@
         <v>5</v>
       </c>
       <c r="B64" s="32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C64" s="76">
         <f t="shared" ref="C64:G64" si="7">SUM(C59:C63)</f>
@@ -2763,11 +2780,11 @@
       </c>
       <c r="D64" s="77">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E64" s="77">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F64" s="77">
         <f t="shared" si="7"/>
@@ -2775,15 +2792,15 @@
       </c>
       <c r="G64" s="77">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H64" s="77">
         <f>SUM(H59:H63)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I64" s="78">
         <f>SUM(I59:I63)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J64" s="31"/>
     </row>

--- a/Aanwezigheid/Presentie GL-G5.xlsx
+++ b/Aanwezigheid/Presentie GL-G5.xlsx
@@ -1091,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1160,7 +1160,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="32">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B104+B112+B120+B128+B136+B144+B152+B168+B160+B176</f>
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L2" s="47">
         <f>C8+C16+C24+C32+C48+C56+C64+C72+C80+C88+C96+C104+C120+C128+C136+C144+C152+C160+C168+C176</f>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="M2" s="53">
         <f>L2/K2</f>
-        <v>0.35849056603773582</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="N2" s="42" t="s">
         <v>18</v>
@@ -1208,11 +1208,11 @@
       <c r="K3" s="10"/>
       <c r="L3" s="48">
         <f>D8+D16+D24+D32+D48+D56+D64+D72+D80+D88+D96+D104+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M3" s="54">
         <f>L3/K2</f>
-        <v>0.86792452830188682</v>
+        <v>0.875</v>
       </c>
       <c r="N3" s="43" t="s">
         <v>19</v>
@@ -1250,11 +1250,11 @@
       <c r="K4" s="10"/>
       <c r="L4" s="49">
         <f>E8+E16+E24+E32+E48+E56+E64+E72+E80+E88+E96+E104+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M4" s="55">
         <f>L4/K2</f>
-        <v>0.83018867924528306</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="N4" s="44" t="s">
         <v>20</v>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="M5" s="56">
         <f>L5/K2</f>
-        <v>0.41509433962264153</v>
+        <v>0.39285714285714285</v>
       </c>
       <c r="N5" s="45" t="s">
         <v>21</v>
@@ -1334,11 +1334,11 @@
       <c r="K6" s="10"/>
       <c r="L6" s="51">
         <f>G8+G16+G24+G32+G48+G56+G64+G72+G80+G88+G96+G104+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M6" s="57">
         <f>L6/K2</f>
-        <v>0.79245283018867929</v>
+        <v>0.8035714285714286</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>22</v>
@@ -1376,11 +1376,11 @@
       <c r="K7" s="10"/>
       <c r="L7" s="52">
         <f>H8+H88+H24+H32+H48+H56+H64+H72+H80+H96+H104+H120+H128+H136+H144+H152+H160+H168+H176+H16</f>
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M7" s="58">
         <f>L7/K2</f>
-        <v>0.81132075471698117</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="N7" s="46" t="s">
         <v>23</v>
@@ -1425,11 +1425,11 @@
       <c r="K8" s="10"/>
       <c r="L8" s="38">
         <f>I8+I16+I24+I32+I48+I56+I64+I72+I80+I88+I96+I104+I120+I128+I136+I144+I152+I160+I168+I176</f>
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M8" s="39">
         <f>L8/K2</f>
-        <v>0.81132075471698117</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="N8" s="41" t="s">
         <v>24</v>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="M10" s="29">
         <f>SUM(M2:M9)</f>
-        <v>4.8867924528301874</v>
+        <v>4.8928571428571423</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2711,14 +2711,26 @@
       <c r="A60" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="10"/>
+      <c r="B60" s="10">
+        <v>6</v>
+      </c>
       <c r="C60" s="34"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
+      <c r="D60" s="35">
+        <v>6</v>
+      </c>
+      <c r="E60" s="35">
+        <v>6</v>
+      </c>
       <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="35"/>
+      <c r="G60" s="35">
+        <v>6</v>
+      </c>
+      <c r="H60" s="35">
+        <v>6</v>
+      </c>
+      <c r="I60" s="35">
+        <v>6</v>
+      </c>
       <c r="J60" s="2"/>
       <c r="K60" s="10"/>
     </row>
@@ -2772,7 +2784,7 @@
         <v>5</v>
       </c>
       <c r="B64" s="32">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C64" s="76">
         <f t="shared" ref="C64:G64" si="7">SUM(C59:C63)</f>
@@ -2780,11 +2792,11 @@
       </c>
       <c r="D64" s="77">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E64" s="77">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F64" s="77">
         <f t="shared" si="7"/>
@@ -2792,15 +2804,15 @@
       </c>
       <c r="G64" s="77">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H64" s="77">
         <f>SUM(H59:H63)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I64" s="78">
         <f>SUM(I59:I63)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J64" s="31"/>
     </row>

--- a/Aanwezigheid/Presentie GL-G5.xlsx
+++ b/Aanwezigheid/Presentie GL-G5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sepi\Documents\Important Portable Stuff V1\Year 2\Game Labs 1\Project-Ninja-Outbreak\Aanwezigheid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sepi\Documents\Important Portable Stuff V1\Year 2\Ninja Outbreak\Project-Ninja-Outbreak\Aanwezigheid\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1091,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M55" sqref="M55"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1208,11 +1208,11 @@
       <c r="K3" s="10"/>
       <c r="L3" s="48">
         <f>D8+D16+D24+D32+D48+D56+D64+D72+D80+D88+D96+D104+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M3" s="54">
         <f>L3/K2</f>
-        <v>0.875</v>
+        <v>0.9107142857142857</v>
       </c>
       <c r="N3" s="43" t="s">
         <v>19</v>
@@ -1250,11 +1250,11 @@
       <c r="K4" s="10"/>
       <c r="L4" s="49">
         <f>E8+E16+E24+E32+E48+E56+E64+E72+E80+E88+E96+E104+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M4" s="55">
         <f>L4/K2</f>
-        <v>0.8392857142857143</v>
+        <v>0.875</v>
       </c>
       <c r="N4" s="44" t="s">
         <v>20</v>
@@ -1292,11 +1292,11 @@
       <c r="K5" s="10"/>
       <c r="L5" s="50">
         <f>F8+F16+F24+F32+F48+F56+F64+F72+F80+F88+F96+F104+F120+F128+F136+F144+F152+F160+F168+F176</f>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M5" s="56">
         <f>L5/K2</f>
-        <v>0.39285714285714285</v>
+        <v>0.41964285714285715</v>
       </c>
       <c r="N5" s="45" t="s">
         <v>21</v>
@@ -1334,11 +1334,11 @@
       <c r="K6" s="10"/>
       <c r="L6" s="51">
         <f>G8+G16+G24+G32+G48+G56+G64+G72+G80+G88+G96+G104+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M6" s="57">
         <f>L6/K2</f>
-        <v>0.8035714285714286</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>22</v>
@@ -1376,11 +1376,11 @@
       <c r="K7" s="10"/>
       <c r="L7" s="52">
         <f>H8+H88+H24+H32+H48+H56+H64+H72+H80+H96+H104+H120+H128+H136+H144+H152+H160+H168+H176+H16</f>
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="M7" s="58">
         <f>L7/K2</f>
-        <v>0.8214285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N7" s="46" t="s">
         <v>23</v>
@@ -1425,11 +1425,11 @@
       <c r="K8" s="10"/>
       <c r="L8" s="38">
         <f>I8+I16+I24+I32+I48+I56+I64+I72+I80+I88+I96+I104+I120+I128+I136+I144+I152+I160+I168+I176</f>
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="M8" s="39">
         <f>L8/K2</f>
-        <v>0.8214285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N8" s="41" t="s">
         <v>24</v>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="M10" s="29">
         <f>SUM(M2:M9)</f>
-        <v>4.8928571428571423</v>
+        <v>5.0982142857142856</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2397,7 +2397,9 @@
       <c r="E44" s="35">
         <v>6</v>
       </c>
-      <c r="F44" s="35"/>
+      <c r="F44" s="35">
+        <v>3</v>
+      </c>
       <c r="G44" s="35">
         <v>6</v>
       </c>
@@ -2500,7 +2502,7 @@
       </c>
       <c r="F48" s="77">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G48" s="77">
         <f t="shared" si="5"/>
@@ -2753,14 +2755,26 @@
       <c r="A62" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="10"/>
+      <c r="B62" s="10">
+        <v>4</v>
+      </c>
       <c r="C62" s="34"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
+      <c r="D62" s="35">
+        <v>4</v>
+      </c>
+      <c r="E62" s="35">
+        <v>4</v>
+      </c>
       <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="36"/>
+      <c r="G62" s="35">
+        <v>4</v>
+      </c>
+      <c r="H62" s="35">
+        <v>4</v>
+      </c>
+      <c r="I62" s="36">
+        <v>4</v>
+      </c>
       <c r="J62" s="2"/>
       <c r="K62" s="10"/>
     </row>
@@ -2768,7 +2782,9 @@
       <c r="A63" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B63" s="9"/>
+      <c r="B63" s="9">
+        <v>4</v>
+      </c>
       <c r="C63" s="82"/>
       <c r="D63" s="80"/>
       <c r="E63" s="80"/>
@@ -2792,11 +2808,11 @@
       </c>
       <c r="D64" s="77">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E64" s="77">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F64" s="77">
         <f t="shared" si="7"/>
@@ -2804,15 +2820,15 @@
       </c>
       <c r="G64" s="77">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H64" s="77">
         <f>SUM(H59:H63)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I64" s="78">
         <f>SUM(I59:I63)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J64" s="31"/>
     </row>

--- a/Aanwezigheid/Presentie GL-G5.xlsx
+++ b/Aanwezigheid/Presentie GL-G5.xlsx
@@ -1091,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1160,15 +1160,15 @@
       <c r="J2" s="1"/>
       <c r="K2" s="32">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B104+B112+B120+B128+B136+B144+B152+B168+B160+B176</f>
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="L2" s="47">
         <f>C8+C16+C24+C32+C48+C56+C64+C72+C80+C88+C96+C104+C120+C128+C136+C144+C152+C160+C168+C176</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M2" s="53">
         <f>L2/K2</f>
-        <v>0.3392857142857143</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N2" s="42" t="s">
         <v>18</v>
@@ -1208,11 +1208,11 @@
       <c r="K3" s="10"/>
       <c r="L3" s="48">
         <f>D8+D16+D24+D32+D48+D56+D64+D72+D80+D88+D96+D104+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M3" s="54">
         <f>L3/K2</f>
-        <v>0.9107142857142857</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="N3" s="43" t="s">
         <v>19</v>
@@ -1250,11 +1250,11 @@
       <c r="K4" s="10"/>
       <c r="L4" s="49">
         <f>E8+E16+E24+E32+E48+E56+E64+E72+E80+E88+E96+E104+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M4" s="55">
         <f>L4/K2</f>
-        <v>0.875</v>
+        <v>0.85</v>
       </c>
       <c r="N4" s="44" t="s">
         <v>20</v>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="M5" s="56">
         <f>L5/K2</f>
-        <v>0.41964285714285715</v>
+        <v>0.39166666666666666</v>
       </c>
       <c r="N5" s="45" t="s">
         <v>21</v>
@@ -1334,11 +1334,11 @@
       <c r="K6" s="10"/>
       <c r="L6" s="51">
         <f>G8+G16+G24+G32+G48+G56+G64+G72+G80+G88+G96+G104+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M6" s="57">
         <f>L6/K2</f>
-        <v>0.8392857142857143</v>
+        <v>0.81666666666666665</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>22</v>
@@ -1376,11 +1376,11 @@
       <c r="K7" s="10"/>
       <c r="L7" s="52">
         <f>H8+H88+H24+H32+H48+H56+H64+H72+H80+H96+H104+H120+H128+H136+H144+H152+H160+H168+H176+H16</f>
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M7" s="58">
         <f>L7/K2</f>
-        <v>0.8571428571428571</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="N7" s="46" t="s">
         <v>23</v>
@@ -1425,11 +1425,11 @@
       <c r="K8" s="10"/>
       <c r="L8" s="38">
         <f>I8+I16+I24+I32+I48+I56+I64+I72+I80+I88+I96+I104+I120+I128+I136+I144+I152+I160+I168+I176</f>
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M8" s="39">
         <f>L8/K2</f>
-        <v>0.8571428571428571</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="N8" s="41" t="s">
         <v>24</v>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="M10" s="29">
         <f>SUM(M2:M9)</f>
-        <v>5.0982142857142856</v>
+        <v>4.9416666666666655</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2434,7 +2434,9 @@
       <c r="B46" s="10">
         <v>4</v>
       </c>
-      <c r="C46" s="34"/>
+      <c r="C46" s="34">
+        <v>2</v>
+      </c>
       <c r="D46" s="35">
         <v>4</v>
       </c>
@@ -2490,7 +2492,7 @@
       </c>
       <c r="C48" s="76">
         <f t="shared" ref="C48:G48" si="5">SUM(C43:C47)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D48" s="77">
         <f t="shared" si="5"/>
@@ -2786,12 +2788,22 @@
         <v>4</v>
       </c>
       <c r="C63" s="82"/>
-      <c r="D63" s="80"/>
-      <c r="E63" s="80"/>
+      <c r="D63" s="80">
+        <v>4</v>
+      </c>
+      <c r="E63" s="80">
+        <v>4</v>
+      </c>
       <c r="F63" s="80"/>
-      <c r="G63" s="80"/>
-      <c r="H63" s="80"/>
-      <c r="I63" s="81"/>
+      <c r="G63" s="80">
+        <v>4</v>
+      </c>
+      <c r="H63" s="80">
+        <v>4</v>
+      </c>
+      <c r="I63" s="81">
+        <v>4</v>
+      </c>
       <c r="J63" s="3"/>
       <c r="K63" s="10"/>
     </row>
@@ -2800,7 +2812,7 @@
         <v>5</v>
       </c>
       <c r="B64" s="32">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C64" s="76">
         <f t="shared" ref="C64:G64" si="7">SUM(C59:C63)</f>
@@ -2808,11 +2820,11 @@
       </c>
       <c r="D64" s="77">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E64" s="77">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F64" s="77">
         <f t="shared" si="7"/>
@@ -2820,15 +2832,15 @@
       </c>
       <c r="G64" s="77">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H64" s="77">
         <f>SUM(H59:H63)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I64" s="78">
         <f>SUM(I59:I63)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J64" s="31"/>
     </row>

--- a/Aanwezigheid/Presentie GL-G5.xlsx
+++ b/Aanwezigheid/Presentie GL-G5.xlsx
@@ -1091,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1208,11 +1208,11 @@
       <c r="K3" s="10"/>
       <c r="L3" s="48">
         <f>D8+D16+D24+D32+D48+D56+D64+D72+D80+D88+D96+D104+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M3" s="54">
         <f>L3/K2</f>
-        <v>0.8833333333333333</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="N3" s="43" t="s">
         <v>19</v>
@@ -1250,11 +1250,11 @@
       <c r="K4" s="10"/>
       <c r="L4" s="49">
         <f>E8+E16+E24+E32+E48+E56+E64+E72+E80+E88+E96+E104+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M4" s="55">
         <f>L4/K2</f>
-        <v>0.85</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="N4" s="44" t="s">
         <v>20</v>
@@ -1334,11 +1334,11 @@
       <c r="K6" s="10"/>
       <c r="L6" s="51">
         <f>G8+G16+G24+G32+G48+G56+G64+G72+G80+G88+G96+G104+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M6" s="57">
         <f>L6/K2</f>
-        <v>0.81666666666666665</v>
+        <v>0.85</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>22</v>
@@ -1376,11 +1376,11 @@
       <c r="K7" s="10"/>
       <c r="L7" s="52">
         <f>H8+H88+H24+H32+H48+H56+H64+H72+H80+H96+H104+H120+H128+H136+H144+H152+H160+H168+H176+H16</f>
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M7" s="58">
         <f>L7/K2</f>
-        <v>0.83333333333333337</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="N7" s="46" t="s">
         <v>23</v>
@@ -1425,11 +1425,11 @@
       <c r="K8" s="10"/>
       <c r="L8" s="38">
         <f>I8+I16+I24+I32+I48+I56+I64+I72+I80+I88+I96+I104+I120+I128+I136+I144+I152+I160+I168+I176</f>
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M8" s="39">
         <f>L8/K2</f>
-        <v>0.83333333333333337</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="N8" s="41" t="s">
         <v>24</v>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="M10" s="29">
         <f>SUM(M2:M9)</f>
-        <v>4.9416666666666655</v>
+        <v>5.1083333333333343</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2877,12 +2877,22 @@
       </c>
       <c r="B67" s="24"/>
       <c r="C67" s="34"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
+      <c r="D67" s="35">
+        <v>4</v>
+      </c>
+      <c r="E67" s="35">
+        <v>4</v>
+      </c>
       <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="36"/>
+      <c r="G67" s="35">
+        <v>4</v>
+      </c>
+      <c r="H67" s="35">
+        <v>4</v>
+      </c>
+      <c r="I67" s="36">
+        <v>4</v>
+      </c>
       <c r="J67" s="17"/>
       <c r="K67" s="10"/>
     </row>
@@ -2959,11 +2969,11 @@
       </c>
       <c r="D72" s="77">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E72" s="77">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F72" s="77">
         <f t="shared" si="8"/>
@@ -2971,15 +2981,15 @@
       </c>
       <c r="G72" s="77">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H72" s="77">
         <f>SUM(H67:H71)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I72" s="78">
         <f>SUM(I67:I71)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J72" s="31"/>
     </row>

--- a/Aanwezigheid/Presentie GL-G5.xlsx
+++ b/Aanwezigheid/Presentie GL-G5.xlsx
@@ -1091,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1208,11 +1208,11 @@
       <c r="K3" s="10"/>
       <c r="L3" s="48">
         <f>D8+D16+D24+D32+D48+D56+D64+D72+D80+D88+D96+D104+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="M3" s="54">
         <f>L3/K2</f>
-        <v>0.91666666666666663</v>
+        <v>1</v>
       </c>
       <c r="N3" s="43" t="s">
         <v>19</v>
@@ -1250,11 +1250,11 @@
       <c r="K4" s="10"/>
       <c r="L4" s="49">
         <f>E8+E16+E24+E32+E48+E56+E64+E72+E80+E88+E96+E104+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="M4" s="55">
         <f>L4/K2</f>
-        <v>0.8833333333333333</v>
+        <v>0.96666666666666667</v>
       </c>
       <c r="N4" s="44" t="s">
         <v>20</v>
@@ -1292,11 +1292,11 @@
       <c r="K5" s="10"/>
       <c r="L5" s="50">
         <f>F8+F16+F24+F32+F48+F56+F64+F72+F80+F88+F96+F104+F120+F128+F136+F144+F152+F160+F168+F176</f>
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M5" s="56">
         <f>L5/K2</f>
-        <v>0.39166666666666666</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="N5" s="45" t="s">
         <v>21</v>
@@ -1334,11 +1334,11 @@
       <c r="K6" s="10"/>
       <c r="L6" s="51">
         <f>G8+G16+G24+G32+G48+G56+G64+G72+G80+G88+G96+G104+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="M6" s="57">
         <f>L6/K2</f>
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>22</v>
@@ -1376,11 +1376,11 @@
       <c r="K7" s="10"/>
       <c r="L7" s="52">
         <f>H8+H88+H24+H32+H48+H56+H64+H72+H80+H96+H104+H120+H128+H136+H144+H152+H160+H168+H176+H16</f>
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M7" s="58">
         <f>L7/K2</f>
-        <v>0.8666666666666667</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="N7" s="46" t="s">
         <v>23</v>
@@ -1425,11 +1425,11 @@
       <c r="K8" s="10"/>
       <c r="L8" s="38">
         <f>I8+I16+I24+I32+I48+I56+I64+I72+I80+I88+I96+I104+I120+I128+I136+I144+I152+I160+I168+I176</f>
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="M8" s="39">
         <f>L8/K2</f>
-        <v>0.8666666666666667</v>
+        <v>0.95</v>
       </c>
       <c r="N8" s="41" t="s">
         <v>24</v>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="M10" s="29">
         <f>SUM(M2:M9)</f>
-        <v>5.1083333333333343</v>
+        <v>5.4916666666666663</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2875,7 +2875,9 @@
       <c r="A67" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="24"/>
+      <c r="B67" s="24">
+        <v>4</v>
+      </c>
       <c r="C67" s="34"/>
       <c r="D67" s="35">
         <v>4</v>
@@ -2900,14 +2902,26 @@
       <c r="A68" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="24"/>
+      <c r="B68" s="24">
+        <v>6</v>
+      </c>
       <c r="C68" s="34"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
+      <c r="D68" s="35">
+        <v>6</v>
+      </c>
+      <c r="E68" s="35">
+        <v>6</v>
+      </c>
       <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="35"/>
-      <c r="I68" s="36"/>
+      <c r="G68" s="35">
+        <v>6</v>
+      </c>
+      <c r="H68" s="35">
+        <v>6</v>
+      </c>
+      <c r="I68" s="36">
+        <v>6</v>
+      </c>
       <c r="J68" s="17"/>
       <c r="K68" s="10"/>
     </row>
@@ -2932,12 +2946,20 @@
       </c>
       <c r="B70" s="24"/>
       <c r="C70" s="34"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
+      <c r="D70" s="35">
+        <v>4</v>
+      </c>
+      <c r="E70" s="35">
+        <v>4</v>
+      </c>
+      <c r="F70" s="35">
+        <v>4</v>
+      </c>
       <c r="G70" s="35"/>
       <c r="H70" s="35"/>
-      <c r="I70" s="36"/>
+      <c r="I70" s="36">
+        <v>4</v>
+      </c>
       <c r="J70" s="17"/>
       <c r="K70" s="10"/>
     </row>
@@ -2969,27 +2991,27 @@
       </c>
       <c r="D72" s="77">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E72" s="77">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F72" s="77">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G72" s="77">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H72" s="77">
         <f>SUM(H67:H71)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I72" s="78">
         <f>SUM(I67:I71)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J72" s="31"/>
     </row>

--- a/Aanwezigheid/Presentie GL-G5.xlsx
+++ b/Aanwezigheid/Presentie GL-G5.xlsx
@@ -1091,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1208,11 +1208,11 @@
       <c r="K3" s="10"/>
       <c r="L3" s="48">
         <f>D8+D16+D24+D32+D48+D56+D64+D72+D80+D88+D96+D104+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M3" s="54">
         <f>L3/K2</f>
-        <v>1</v>
+        <v>1.0333333333333334</v>
       </c>
       <c r="N3" s="43" t="s">
         <v>19</v>
@@ -1250,11 +1250,11 @@
       <c r="K4" s="10"/>
       <c r="L4" s="49">
         <f>E8+E16+E24+E32+E48+E56+E64+E72+E80+E88+E96+E104+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M4" s="55">
         <f>L4/K2</f>
-        <v>0.96666666666666667</v>
+        <v>1</v>
       </c>
       <c r="N4" s="44" t="s">
         <v>20</v>
@@ -1292,11 +1292,11 @@
       <c r="K5" s="10"/>
       <c r="L5" s="50">
         <f>F8+F16+F24+F32+F48+F56+F64+F72+F80+F88+F96+F104+F120+F128+F136+F144+F152+F160+F168+F176</f>
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M5" s="56">
         <f>L5/K2</f>
-        <v>0.42499999999999999</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="N5" s="45" t="s">
         <v>21</v>
@@ -1425,11 +1425,11 @@
       <c r="K8" s="10"/>
       <c r="L8" s="38">
         <f>I8+I16+I24+I32+I48+I56+I64+I72+I80+I88+I96+I104+I120+I128+I136+I144+I152+I160+I168+I176</f>
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M8" s="39">
         <f>L8/K2</f>
-        <v>0.95</v>
+        <v>0.98333333333333328</v>
       </c>
       <c r="N8" s="41" t="s">
         <v>24</v>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="M10" s="29">
         <f>SUM(M2:M9)</f>
-        <v>5.4916666666666663</v>
+        <v>5.625</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2969,12 +2969,20 @@
       </c>
       <c r="B71" s="25"/>
       <c r="C71" s="82"/>
-      <c r="D71" s="80"/>
-      <c r="E71" s="80"/>
-      <c r="F71" s="80"/>
+      <c r="D71" s="80">
+        <v>4</v>
+      </c>
+      <c r="E71" s="80">
+        <v>4</v>
+      </c>
+      <c r="F71" s="80">
+        <v>4</v>
+      </c>
       <c r="G71" s="80"/>
       <c r="H71" s="80"/>
-      <c r="I71" s="81"/>
+      <c r="I71" s="81">
+        <v>4</v>
+      </c>
       <c r="J71" s="19"/>
       <c r="K71" s="10"/>
     </row>
@@ -2991,15 +2999,15 @@
       </c>
       <c r="D72" s="77">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E72" s="77">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F72" s="77">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G72" s="77">
         <f t="shared" si="8"/>
@@ -3011,7 +3019,7 @@
       </c>
       <c r="I72" s="78">
         <f>SUM(I67:I71)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J72" s="31"/>
     </row>

--- a/Aanwezigheid/Presentie GL-G5.xlsx
+++ b/Aanwezigheid/Presentie GL-G5.xlsx
@@ -1091,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1160,7 +1160,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="32">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B104+B112+B120+B128+B136+B144+B152+B168+B160+B176</f>
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="L2" s="47">
         <f>C8+C16+C24+C32+C48+C56+C64+C72+C80+C88+C96+C104+C120+C128+C136+C144+C152+C160+C168+C176</f>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="M2" s="53">
         <f>L2/K2</f>
-        <v>0.33333333333333331</v>
+        <v>0.27027027027027029</v>
       </c>
       <c r="N2" s="42" t="s">
         <v>18</v>
@@ -1208,11 +1208,11 @@
       <c r="K3" s="10"/>
       <c r="L3" s="48">
         <f>D8+D16+D24+D32+D48+D56+D64+D72+D80+D88+D96+D104+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M3" s="54">
         <f>L3/K2</f>
-        <v>1.0333333333333334</v>
+        <v>0.86486486486486491</v>
       </c>
       <c r="N3" s="43" t="s">
         <v>19</v>
@@ -1250,11 +1250,11 @@
       <c r="K4" s="10"/>
       <c r="L4" s="49">
         <f>E8+E16+E24+E32+E48+E56+E64+E72+E80+E88+E96+E104+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M4" s="55">
         <f>L4/K2</f>
-        <v>1</v>
+        <v>0.83783783783783783</v>
       </c>
       <c r="N4" s="44" t="s">
         <v>20</v>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="M5" s="56">
         <f>L5/K2</f>
-        <v>0.45833333333333331</v>
+        <v>0.3716216216216216</v>
       </c>
       <c r="N5" s="45" t="s">
         <v>21</v>
@@ -1334,11 +1334,11 @@
       <c r="K6" s="10"/>
       <c r="L6" s="51">
         <f>G8+G16+G24+G32+G48+G56+G64+G72+G80+G88+G96+G104+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="M6" s="57">
         <f>L6/K2</f>
-        <v>0.9</v>
+        <v>0.79729729729729726</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>22</v>
@@ -1376,11 +1376,11 @@
       <c r="K7" s="10"/>
       <c r="L7" s="52">
         <f>H8+H88+H24+H32+H48+H56+H64+H72+H80+H96+H104+H120+H128+H136+H144+H152+H160+H168+H176+H16</f>
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="M7" s="58">
         <f>L7/K2</f>
-        <v>0.91666666666666663</v>
+        <v>0.81081081081081086</v>
       </c>
       <c r="N7" s="46" t="s">
         <v>23</v>
@@ -1425,11 +1425,11 @@
       <c r="K8" s="10"/>
       <c r="L8" s="38">
         <f>I8+I16+I24+I32+I48+I56+I64+I72+I80+I88+I96+I104+I120+I128+I136+I144+I152+I160+I168+I176</f>
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M8" s="39">
         <f>L8/K2</f>
-        <v>0.98333333333333328</v>
+        <v>0.82432432432432434</v>
       </c>
       <c r="N8" s="41" t="s">
         <v>24</v>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="M10" s="29">
         <f>SUM(M2:M9)</f>
-        <v>5.625</v>
+        <v>4.7770270270270272</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2944,7 +2944,9 @@
       <c r="A70" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B70" s="24"/>
+      <c r="B70" s="24">
+        <v>4</v>
+      </c>
       <c r="C70" s="34"/>
       <c r="D70" s="35">
         <v>4</v>
@@ -2967,7 +2969,9 @@
       <c r="A71" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B71" s="25"/>
+      <c r="B71" s="25">
+        <v>4</v>
+      </c>
       <c r="C71" s="82"/>
       <c r="D71" s="80">
         <v>4</v>
@@ -2991,7 +2995,7 @@
         <v>5</v>
       </c>
       <c r="B72" s="32">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C72" s="76">
         <f t="shared" ref="C72:G72" si="8">SUM(C67:C71)</f>
@@ -3067,13 +3071,19 @@
       <c r="A76" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="10"/>
+      <c r="B76" s="10">
+        <v>6</v>
+      </c>
       <c r="C76" s="34"/>
       <c r="D76" s="35"/>
       <c r="E76" s="35"/>
       <c r="F76" s="35"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="35"/>
+      <c r="G76" s="35">
+        <v>6</v>
+      </c>
+      <c r="H76" s="35">
+        <v>6</v>
+      </c>
       <c r="I76" s="36"/>
       <c r="J76" s="2"/>
       <c r="K76" s="10"/>
@@ -3097,14 +3107,26 @@
       <c r="A78" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B78" s="10"/>
+      <c r="B78" s="10">
+        <v>4</v>
+      </c>
       <c r="C78" s="34"/>
-      <c r="D78" s="35"/>
-      <c r="E78" s="35"/>
+      <c r="D78" s="35">
+        <v>4</v>
+      </c>
+      <c r="E78" s="35">
+        <v>4</v>
+      </c>
       <c r="F78" s="35"/>
-      <c r="G78" s="35"/>
-      <c r="H78" s="35"/>
-      <c r="I78" s="36"/>
+      <c r="G78" s="35">
+        <v>4</v>
+      </c>
+      <c r="H78" s="35">
+        <v>4</v>
+      </c>
+      <c r="I78" s="36">
+        <v>4</v>
+      </c>
       <c r="J78" s="2"/>
       <c r="K78" s="10"/>
     </row>
@@ -3128,7 +3150,7 @@
         <v>5</v>
       </c>
       <c r="B80" s="32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C80" s="76">
         <f t="shared" ref="C80:G80" si="9">SUM(C75:C79)</f>
@@ -3136,11 +3158,11 @@
       </c>
       <c r="D80" s="77">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E80" s="77">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F80" s="77">
         <f t="shared" si="9"/>
@@ -3148,15 +3170,15 @@
       </c>
       <c r="G80" s="77">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H80" s="77">
         <f>SUM(H75:H79)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I80" s="78">
         <f>SUM(I75:I79)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J80" s="31"/>
     </row>
